--- a/state_results/Rivers/PorewaatusHuntervilleSTPSiteA_abd3610be5.xlsx
+++ b/state_results/Rivers/PorewaatusHuntervilleSTPSiteA_abd3610be5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U108"/>
+  <dimension ref="A1:U125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
         <v>0.4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.611724693287223</v>
+        <v>0.611687438194247</v>
       </c>
       <c r="H3" t="n">
         <v>2.1</v>
@@ -732,7 +732,7 @@
         <v>0.016</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0199545319187984</v>
+        <v>0.0199538886713945</v>
       </c>
       <c r="H4" t="n">
         <v>0.184</v>
@@ -813,7 +813,7 @@
         <v>0.016</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0199545319187984</v>
+        <v>0.0199538886713945</v>
       </c>
       <c r="H5" t="n">
         <v>0.184</v>
@@ -894,13 +894,13 @@
         <v>523</v>
       </c>
       <c r="G6" t="n">
-        <v>1729.34365363795</v>
+        <v>1568.82029190474</v>
       </c>
       <c r="H6" t="n">
-        <v>19631.6445247581</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I6" t="n">
-        <v>10851.63055</v>
+        <v>9772.77671</v>
       </c>
       <c r="J6" t="n">
         <v>48.3333333333333</v>
@@ -979,13 +979,13 @@
         <v>523</v>
       </c>
       <c r="G7" t="n">
-        <v>1729.34365363795</v>
+        <v>1568.82029190474</v>
       </c>
       <c r="H7" t="n">
-        <v>19631.6445247581</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I7" t="n">
-        <v>10851.63055</v>
+        <v>9772.77671</v>
       </c>
       <c r="J7" t="n">
         <v>48.3333333333333</v>
@@ -1064,13 +1064,13 @@
         <v>523</v>
       </c>
       <c r="G8" t="n">
-        <v>1729.34365363795</v>
+        <v>1568.82029190474</v>
       </c>
       <c r="H8" t="n">
-        <v>19631.6445247581</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I8" t="n">
-        <v>10851.63055</v>
+        <v>9772.77671</v>
       </c>
       <c r="J8" t="n">
         <v>48.3333333333333</v>
@@ -1149,13 +1149,13 @@
         <v>523</v>
       </c>
       <c r="G9" t="n">
-        <v>1729.34365363795</v>
+        <v>1568.82029190474</v>
       </c>
       <c r="H9" t="n">
-        <v>19631.6445247581</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I9" t="n">
-        <v>10851.63055</v>
+        <v>9772.77671</v>
       </c>
       <c r="J9" t="n">
         <v>48.3333333333333</v>
@@ -1234,7 +1234,7 @@
         <v>0.00713</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0124334628523133</v>
+        <v>0.0124739802357466</v>
       </c>
       <c r="H10" t="n">
         <v>0.0697037461523965</v>
@@ -1315,7 +1315,7 @@
         <v>0.00713</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0124334628523133</v>
+        <v>0.0124739802357466</v>
       </c>
       <c r="H11" t="n">
         <v>0.0697037461523965</v>
@@ -1396,7 +1396,7 @@
         <v>0.1675</v>
       </c>
       <c r="G12" t="n">
-        <v>0.217324652542749</v>
+        <v>0.217370865654309</v>
       </c>
       <c r="H12" t="n">
         <v>1.0304</v>
@@ -1477,7 +1477,7 @@
         <v>0.1675</v>
       </c>
       <c r="G13" t="n">
-        <v>0.217324652542749</v>
+        <v>0.217370865654309</v>
       </c>
       <c r="H13" t="n">
         <v>1.0304</v>
@@ -1554,24 +1554,24 @@
         <v>0.1925</v>
       </c>
       <c r="G14" t="n">
-        <v>0.23790235806649</v>
+        <v>0.237783169292727</v>
       </c>
       <c r="H14" t="n">
-        <v>1.062</v>
+        <v>1.0622</v>
       </c>
       <c r="I14" t="n">
-        <v>0.822</v>
+        <v>0.8222</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.012</v>
+        <v>0.01015</v>
       </c>
       <c r="M14" t="n">
         <v>0.4802</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7105</v>
+        <v>0.71057</v>
       </c>
       <c r="O14" t="n">
         <v>1819568.572</v>
@@ -1631,24 +1631,24 @@
         <v>0.1925</v>
       </c>
       <c r="G15" t="n">
-        <v>0.23790235806649</v>
+        <v>0.237783169292727</v>
       </c>
       <c r="H15" t="n">
-        <v>1.062</v>
+        <v>1.0622</v>
       </c>
       <c r="I15" t="n">
-        <v>0.822</v>
+        <v>0.8222</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>0.012</v>
+        <v>0.01015</v>
       </c>
       <c r="M15" t="n">
         <v>0.4802</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7105</v>
+        <v>0.71057</v>
       </c>
       <c r="O15" t="n">
         <v>1819568.572</v>
@@ -2101,7 +2101,7 @@
         <v>0.33</v>
       </c>
       <c r="G21" t="n">
-        <v>0.492515487495133</v>
+        <v>0.492482281868786</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
@@ -2182,7 +2182,7 @@
         <v>0.016</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0194378652521318</v>
+        <v>0.0194372220047279</v>
       </c>
       <c r="H22" t="n">
         <v>0.184</v>
@@ -2263,7 +2263,7 @@
         <v>0.016</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0194378652521318</v>
+        <v>0.0194372220047279</v>
       </c>
       <c r="H23" t="n">
         <v>0.184</v>
@@ -2344,13 +2344,13 @@
         <v>538</v>
       </c>
       <c r="G24" t="n">
-        <v>1703.84758880387</v>
+        <v>1609.41303089166</v>
       </c>
       <c r="H24" t="n">
-        <v>19631.6445247581</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I24" t="n">
-        <v>10893.7486</v>
+        <v>10029.25038</v>
       </c>
       <c r="J24" t="n">
         <v>50</v>
@@ -2429,13 +2429,13 @@
         <v>538</v>
       </c>
       <c r="G25" t="n">
-        <v>1703.84758880387</v>
+        <v>1609.41303089166</v>
       </c>
       <c r="H25" t="n">
-        <v>19631.6445247581</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I25" t="n">
-        <v>10893.7486</v>
+        <v>10029.25038</v>
       </c>
       <c r="J25" t="n">
         <v>50</v>
@@ -2514,13 +2514,13 @@
         <v>538</v>
       </c>
       <c r="G26" t="n">
-        <v>1703.84758880387</v>
+        <v>1609.41303089166</v>
       </c>
       <c r="H26" t="n">
-        <v>19631.6445247581</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I26" t="n">
-        <v>10893.7486</v>
+        <v>10029.25038</v>
       </c>
       <c r="J26" t="n">
         <v>50</v>
@@ -2599,13 +2599,13 @@
         <v>538</v>
       </c>
       <c r="G27" t="n">
-        <v>1703.84758880387</v>
+        <v>1609.41303089166</v>
       </c>
       <c r="H27" t="n">
-        <v>19631.6445247581</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I27" t="n">
-        <v>10893.7486</v>
+        <v>10029.25038</v>
       </c>
       <c r="J27" t="n">
         <v>50</v>
@@ -2684,7 +2684,7 @@
         <v>0.00759</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0122964957167221</v>
+        <v>0.0123766235353128</v>
       </c>
       <c r="H28" t="n">
         <v>0.0697037461523965</v>
@@ -2695,10 +2695,10 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.00519</v>
+        <v>0.00529</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01902</v>
+        <v>0.0195</v>
       </c>
       <c r="N28" t="n">
         <v>0.03125</v>
@@ -2765,7 +2765,7 @@
         <v>0.00759</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0122964957167221</v>
+        <v>0.0123766235353128</v>
       </c>
       <c r="H29" t="n">
         <v>0.0697037461523965</v>
@@ -2776,10 +2776,10 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.00519</v>
+        <v>0.00529</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01902</v>
+        <v>0.0195</v>
       </c>
       <c r="N29" t="n">
         <v>0.03125</v>
@@ -2846,7 +2846,7 @@
         <v>0.212</v>
       </c>
       <c r="G30" t="n">
-        <v>0.229260929040273</v>
+        <v>0.229317467530055</v>
       </c>
       <c r="H30" t="n">
         <v>1.0304</v>
@@ -2857,7 +2857,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.00221</v>
+        <v>0.0028</v>
       </c>
       <c r="M30" t="n">
         <v>0.4398</v>
@@ -2927,7 +2927,7 @@
         <v>0.212</v>
       </c>
       <c r="G31" t="n">
-        <v>0.229260929040273</v>
+        <v>0.229317467530055</v>
       </c>
       <c r="H31" t="n">
         <v>1.0304</v>
@@ -2938,7 +2938,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.00221</v>
+        <v>0.0028</v>
       </c>
       <c r="M31" t="n">
         <v>0.4398</v>
@@ -3001,13 +3001,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.226</v>
+        <v>0.22605</v>
       </c>
       <c r="G32" t="n">
-        <v>0.250142762561425</v>
+        <v>0.250233653172288</v>
       </c>
       <c r="H32" t="n">
-        <v>1.062</v>
+        <v>1.0622</v>
       </c>
       <c r="I32" t="n">
         <v>0.731</v>
@@ -3015,7 +3015,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>0.0125</v>
+        <v>0.0126</v>
       </c>
       <c r="M32" t="n">
         <v>0.47</v>
@@ -3078,13 +3078,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.226</v>
+        <v>0.22605</v>
       </c>
       <c r="G33" t="n">
-        <v>0.250142762561425</v>
+        <v>0.250233653172288</v>
       </c>
       <c r="H33" t="n">
-        <v>1.062</v>
+        <v>1.0622</v>
       </c>
       <c r="I33" t="n">
         <v>0.731</v>
@@ -3092,7 +3092,7 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>0.0125</v>
+        <v>0.0126</v>
       </c>
       <c r="M33" t="n">
         <v>0.47</v>
@@ -3551,7 +3551,7 @@
         <v>0.25</v>
       </c>
       <c r="G39" t="n">
-        <v>0.326179358715724</v>
+        <v>0.326143836417771</v>
       </c>
       <c r="H39" t="n">
         <v>1.02</v>
@@ -3632,7 +3632,7 @@
         <v>0.0165</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0203545319187984</v>
+        <v>0.0203538886713945</v>
       </c>
       <c r="H40" t="n">
         <v>0.184</v>
@@ -3713,7 +3713,7 @@
         <v>0.0165</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0203545319187984</v>
+        <v>0.0203538886713945</v>
       </c>
       <c r="H41" t="n">
         <v>0.184</v>
@@ -3794,13 +3794,13 @@
         <v>565</v>
       </c>
       <c r="G42" t="n">
-        <v>1866.61425547053</v>
+        <v>1772.17969755833</v>
       </c>
       <c r="H42" t="n">
-        <v>19631.6445247581</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I42" t="n">
-        <v>10893.7486</v>
+        <v>10029.25038</v>
       </c>
       <c r="J42" t="n">
         <v>51.6666666666667</v>
@@ -3879,13 +3879,13 @@
         <v>565</v>
       </c>
       <c r="G43" t="n">
-        <v>1866.61425547053</v>
+        <v>1772.17969755833</v>
       </c>
       <c r="H43" t="n">
-        <v>19631.6445247581</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I43" t="n">
-        <v>10893.7486</v>
+        <v>10029.25038</v>
       </c>
       <c r="J43" t="n">
         <v>51.6666666666667</v>
@@ -3964,13 +3964,13 @@
         <v>565</v>
       </c>
       <c r="G44" t="n">
-        <v>1866.61425547053</v>
+        <v>1772.17969755833</v>
       </c>
       <c r="H44" t="n">
-        <v>19631.6445247581</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I44" t="n">
-        <v>10893.7486</v>
+        <v>10029.25038</v>
       </c>
       <c r="J44" t="n">
         <v>51.6666666666667</v>
@@ -4049,13 +4049,13 @@
         <v>565</v>
       </c>
       <c r="G45" t="n">
-        <v>1866.61425547053</v>
+        <v>1772.17969755833</v>
       </c>
       <c r="H45" t="n">
-        <v>19631.6445247581</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I45" t="n">
-        <v>10893.7486</v>
+        <v>10029.25038</v>
       </c>
       <c r="J45" t="n">
         <v>51.6666666666667</v>
@@ -4134,7 +4134,7 @@
         <v>0.01001</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0155555010535586</v>
+        <v>0.0156739345588293</v>
       </c>
       <c r="H46" t="n">
         <v>0.11550500540332</v>
@@ -4145,7 +4145,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>0.00759</v>
+        <v>0.00776</v>
       </c>
       <c r="M46" t="n">
         <v>0.02554</v>
@@ -4215,7 +4215,7 @@
         <v>0.01001</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0155555010535586</v>
+        <v>0.0156739345588293</v>
       </c>
       <c r="H47" t="n">
         <v>0.11550500540332</v>
@@ -4226,7 +4226,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.00759</v>
+        <v>0.00776</v>
       </c>
       <c r="M47" t="n">
         <v>0.02554</v>
@@ -4296,7 +4296,7 @@
         <v>0.212</v>
       </c>
       <c r="G48" t="n">
-        <v>0.239338859326166</v>
+        <v>0.239431781747333</v>
       </c>
       <c r="H48" t="n">
         <v>1.07</v>
@@ -4307,7 +4307,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.00356</v>
+        <v>0.00392</v>
       </c>
       <c r="M48" t="n">
         <v>0.4614</v>
@@ -4377,7 +4377,7 @@
         <v>0.212</v>
       </c>
       <c r="G49" t="n">
-        <v>0.239338859326166</v>
+        <v>0.239431781747333</v>
       </c>
       <c r="H49" t="n">
         <v>1.07</v>
@@ -4388,7 +4388,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.00356</v>
+        <v>0.00392</v>
       </c>
       <c r="M49" t="n">
         <v>0.4614</v>
@@ -4454,18 +4454,18 @@
         <v>0.2275</v>
       </c>
       <c r="G50" t="n">
-        <v>0.261654009873355</v>
+        <v>0.261781531542859</v>
       </c>
       <c r="H50" t="n">
         <v>1.12</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7235</v>
+        <v>0.72345</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0.01344</v>
+        <v>0.01382</v>
       </c>
       <c r="M50" t="n">
         <v>0.488</v>
@@ -4531,18 +4531,18 @@
         <v>0.2275</v>
       </c>
       <c r="G51" t="n">
-        <v>0.261654009873355</v>
+        <v>0.261781531542859</v>
       </c>
       <c r="H51" t="n">
         <v>1.12</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7235</v>
+        <v>0.72345</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>0.01344</v>
+        <v>0.01382</v>
       </c>
       <c r="M51" t="n">
         <v>0.488</v>
@@ -5082,7 +5082,7 @@
         <v>0.017</v>
       </c>
       <c r="G58" t="n">
-        <v>0.019072405341151</v>
+        <v>0.0190717511912487</v>
       </c>
       <c r="H58" t="n">
         <v>0.063</v>
@@ -5163,7 +5163,7 @@
         <v>0.017</v>
       </c>
       <c r="G59" t="n">
-        <v>0.019072405341151</v>
+        <v>0.0190717511912487</v>
       </c>
       <c r="H59" t="n">
         <v>0.063</v>
@@ -5244,13 +5244,13 @@
         <v>620</v>
       </c>
       <c r="G60" t="n">
-        <v>1977.38737844461</v>
+        <v>1881.35223480508</v>
       </c>
       <c r="H60" t="n">
-        <v>19631.6445247581</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I60" t="n">
-        <v>11004.69985</v>
+        <v>10047.62008</v>
       </c>
       <c r="J60" t="n">
         <v>52.5423728813559</v>
@@ -5329,13 +5329,13 @@
         <v>620</v>
       </c>
       <c r="G61" t="n">
-        <v>1977.38737844461</v>
+        <v>1881.35223480508</v>
       </c>
       <c r="H61" t="n">
-        <v>19631.6445247581</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I61" t="n">
-        <v>11004.69985</v>
+        <v>10047.62008</v>
       </c>
       <c r="J61" t="n">
         <v>52.5423728813559</v>
@@ -5414,13 +5414,13 @@
         <v>620</v>
       </c>
       <c r="G62" t="n">
-        <v>1977.38737844461</v>
+        <v>1881.35223480508</v>
       </c>
       <c r="H62" t="n">
-        <v>19631.6445247581</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I62" t="n">
-        <v>11004.69985</v>
+        <v>10047.62008</v>
       </c>
       <c r="J62" t="n">
         <v>52.5423728813559</v>
@@ -5499,13 +5499,13 @@
         <v>620</v>
       </c>
       <c r="G63" t="n">
-        <v>1977.38737844461</v>
+        <v>1881.35223480508</v>
       </c>
       <c r="H63" t="n">
-        <v>19631.6445247581</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I63" t="n">
-        <v>11004.69985</v>
+        <v>10047.62008</v>
       </c>
       <c r="J63" t="n">
         <v>52.5423728813559</v>
@@ -5584,13 +5584,13 @@
         <v>0.01171</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0161506252505258</v>
+        <v>0.0162639109287007</v>
       </c>
       <c r="H64" t="n">
         <v>0.11550500540332</v>
       </c>
       <c r="I64" t="n">
-        <v>0.04422</v>
+        <v>0.04443</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -5601,7 +5601,7 @@
         <v>0.0249</v>
       </c>
       <c r="N64" t="n">
-        <v>0.03022</v>
+        <v>0.03058</v>
       </c>
       <c r="O64" t="n">
         <v>1819568.572</v>
@@ -5665,13 +5665,13 @@
         <v>0.01171</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0161506252505258</v>
+        <v>0.0162639109287007</v>
       </c>
       <c r="H65" t="n">
         <v>0.11550500540332</v>
       </c>
       <c r="I65" t="n">
-        <v>0.04422</v>
+        <v>0.04443</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -5682,7 +5682,7 @@
         <v>0.0249</v>
       </c>
       <c r="N65" t="n">
-        <v>0.03022</v>
+        <v>0.03058</v>
       </c>
       <c r="O65" t="n">
         <v>1819568.572</v>
@@ -5746,7 +5746,7 @@
         <v>0.22</v>
       </c>
       <c r="G66" t="n">
-        <v>0.24591623538724</v>
+        <v>0.246009923127672</v>
       </c>
       <c r="H66" t="n">
         <v>1.07</v>
@@ -5827,7 +5827,7 @@
         <v>0.22</v>
       </c>
       <c r="G67" t="n">
-        <v>0.24591623538724</v>
+        <v>0.246009923127672</v>
       </c>
       <c r="H67" t="n">
         <v>1.07</v>
@@ -5904,7 +5904,7 @@
         <v>0.24</v>
       </c>
       <c r="G68" t="n">
-        <v>0.270141158368897</v>
+        <v>0.27023615331083</v>
       </c>
       <c r="H68" t="n">
         <v>1.12</v>
@@ -5981,7 +5981,7 @@
         <v>0.24</v>
       </c>
       <c r="G69" t="n">
-        <v>0.270141158368897</v>
+        <v>0.27023615331083</v>
       </c>
       <c r="H69" t="n">
         <v>1.12</v>
@@ -6694,10 +6694,10 @@
         <v>630</v>
       </c>
       <c r="G78" t="n">
-        <v>1569.160969533</v>
+        <v>1682.88612012388</v>
       </c>
       <c r="H78" t="n">
-        <v>12003.2610924919</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I78" t="n">
         <v>8440</v>
@@ -6779,10 +6779,10 @@
         <v>630</v>
       </c>
       <c r="G79" t="n">
-        <v>1569.160969533</v>
+        <v>1682.88612012388</v>
       </c>
       <c r="H79" t="n">
-        <v>12003.2610924919</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I79" t="n">
         <v>8440</v>
@@ -6864,10 +6864,10 @@
         <v>630</v>
       </c>
       <c r="G80" t="n">
-        <v>1569.160969533</v>
+        <v>1682.88612012388</v>
       </c>
       <c r="H80" t="n">
-        <v>12003.2610924919</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I80" t="n">
         <v>8440</v>
@@ -6949,10 +6949,10 @@
         <v>630</v>
       </c>
       <c r="G81" t="n">
-        <v>1569.160969533</v>
+        <v>1682.88612012388</v>
       </c>
       <c r="H81" t="n">
-        <v>12003.2610924919</v>
+        <v>14747.7167480932</v>
       </c>
       <c r="I81" t="n">
         <v>8440</v>
@@ -7034,13 +7034,13 @@
         <v>0.01177</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0167909377601855</v>
+        <v>0.0168692619134825</v>
       </c>
       <c r="H82" t="n">
         <v>0.11550500540332</v>
       </c>
       <c r="I82" t="n">
-        <v>0.04358</v>
+        <v>0.04385</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>0.02498</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0299</v>
+        <v>0.03015</v>
       </c>
       <c r="O82" t="n">
         <v>1819568.572</v>
@@ -7115,13 +7115,13 @@
         <v>0.01177</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0167909377601855</v>
+        <v>0.0168692619134825</v>
       </c>
       <c r="H83" t="n">
         <v>0.11550500540332</v>
       </c>
       <c r="I83" t="n">
-        <v>0.04358</v>
+        <v>0.04385</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -7132,7 +7132,7 @@
         <v>0.02498</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0299</v>
+        <v>0.03015</v>
       </c>
       <c r="O83" t="n">
         <v>1819568.572</v>
@@ -7196,7 +7196,7 @@
         <v>0.198</v>
       </c>
       <c r="G84" t="n">
-        <v>0.238402496345094</v>
+        <v>0.238473594992636</v>
       </c>
       <c r="H84" t="n">
         <v>1.07</v>
@@ -7277,7 +7277,7 @@
         <v>0.198</v>
       </c>
       <c r="G85" t="n">
-        <v>0.238402496345094</v>
+        <v>0.238473594992636</v>
       </c>
       <c r="H85" t="n">
         <v>1.07</v>
@@ -7354,7 +7354,7 @@
         <v>0.215</v>
       </c>
       <c r="G86" t="n">
-        <v>0.262013774273773</v>
+        <v>0.262084653049866</v>
       </c>
       <c r="H86" t="n">
         <v>1.12</v>
@@ -7431,7 +7431,7 @@
         <v>0.215</v>
       </c>
       <c r="G87" t="n">
-        <v>0.262013774273773</v>
+        <v>0.262084653049866</v>
       </c>
       <c r="H87" t="n">
         <v>1.12</v>
@@ -8063,10 +8063,10 @@
         <v>520</v>
       </c>
       <c r="G95" t="n">
-        <v>1193.17560173033</v>
+        <v>1261.50890242479</v>
       </c>
       <c r="H95" t="n">
-        <v>9784.236109955031</v>
+        <v>13749.5643392157</v>
       </c>
       <c r="I95" t="n">
         <v>5045.2</v>
@@ -8148,10 +8148,10 @@
         <v>520</v>
       </c>
       <c r="G96" t="n">
-        <v>1193.17560173033</v>
+        <v>1261.50890242479</v>
       </c>
       <c r="H96" t="n">
-        <v>9784.236109955031</v>
+        <v>13749.5643392157</v>
       </c>
       <c r="I96" t="n">
         <v>5045.2</v>
@@ -8233,10 +8233,10 @@
         <v>520</v>
       </c>
       <c r="G97" t="n">
-        <v>1193.17560173033</v>
+        <v>1261.50890242479</v>
       </c>
       <c r="H97" t="n">
-        <v>9784.236109955031</v>
+        <v>13749.5643392157</v>
       </c>
       <c r="I97" t="n">
         <v>5045.2</v>
@@ -8318,10 +8318,10 @@
         <v>520</v>
       </c>
       <c r="G98" t="n">
-        <v>1193.17560173033</v>
+        <v>1261.50890242479</v>
       </c>
       <c r="H98" t="n">
-        <v>9784.236109955031</v>
+        <v>13749.5643392157</v>
       </c>
       <c r="I98" t="n">
         <v>5045.2</v>
@@ -8403,13 +8403,13 @@
         <v>0.01376</v>
       </c>
       <c r="G99" t="n">
-        <v>0.017690261791754</v>
+        <v>0.017765926947845</v>
       </c>
       <c r="H99" t="n">
         <v>0.11550500540332</v>
       </c>
       <c r="I99" t="n">
-        <v>0.04358</v>
+        <v>0.04385</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -8420,7 +8420,7 @@
         <v>0.02449</v>
       </c>
       <c r="N99" t="n">
-        <v>0.03304</v>
+        <v>0.03329</v>
       </c>
       <c r="O99" t="n">
         <v>1819568.572</v>
@@ -8484,13 +8484,13 @@
         <v>0.01376</v>
       </c>
       <c r="G100" t="n">
-        <v>0.017690261791754</v>
+        <v>0.017765926947845</v>
       </c>
       <c r="H100" t="n">
         <v>0.11550500540332</v>
       </c>
       <c r="I100" t="n">
-        <v>0.04358</v>
+        <v>0.04385</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -8501,7 +8501,7 @@
         <v>0.02449</v>
       </c>
       <c r="N100" t="n">
-        <v>0.03304</v>
+        <v>0.03329</v>
       </c>
       <c r="O100" t="n">
         <v>1819568.572</v>
@@ -8565,7 +8565,7 @@
         <v>0.187</v>
       </c>
       <c r="G101" t="n">
-        <v>0.279788054470802</v>
+        <v>0.279850676914932</v>
       </c>
       <c r="H101" t="n">
         <v>1.56</v>
@@ -8646,7 +8646,7 @@
         <v>0.187</v>
       </c>
       <c r="G102" t="n">
-        <v>0.279788054470802</v>
+        <v>0.279850676914932</v>
       </c>
       <c r="H102" t="n">
         <v>1.56</v>
@@ -8723,7 +8723,7 @@
         <v>0.199</v>
       </c>
       <c r="G103" t="n">
-        <v>0.304605157041584</v>
+        <v>0.30466727129324</v>
       </c>
       <c r="H103" t="n">
         <v>1.597</v>
@@ -8800,7 +8800,7 @@
         <v>0.199</v>
       </c>
       <c r="G104" t="n">
-        <v>0.304605157041584</v>
+        <v>0.30466727129324</v>
       </c>
       <c r="H104" t="n">
         <v>1.597</v>
@@ -9159,6 +9159,1375 @@
         </is>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Porewa at u/s Hunterville STP Site A</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (83rd Percentile)</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>65</v>
+      </c>
+      <c r="G109" t="n">
+        <v>70.9433962264151</v>
+      </c>
+      <c r="H109" t="n">
+        <v>230</v>
+      </c>
+      <c r="I109" t="n">
+        <v>189.25</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="M109" t="n">
+        <v>117.45</v>
+      </c>
+      <c r="N109" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1819568.572</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Porewa at u/s Hunterville STP Site A</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.0197241379310345</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1819568.572</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Porewa at u/s Hunterville STP Site A</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.0197241379310345</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1819568.572</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Porewa at u/s Hunterville STP Site A</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>475</v>
+      </c>
+      <c r="G112" t="n">
+        <v>997.844000024519</v>
+      </c>
+      <c r="H112" t="n">
+        <v>6900</v>
+      </c>
+      <c r="I112" t="n">
+        <v>4567.8</v>
+      </c>
+      <c r="J112" t="n">
+        <v>44.8275862068966</v>
+      </c>
+      <c r="K112" t="n">
+        <v>79.31034482758621</v>
+      </c>
+      <c r="L112" t="n">
+        <v>420</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1428</v>
+      </c>
+      <c r="N112" t="n">
+        <v>3996.58</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1819568.572</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Porewa at u/s Hunterville STP Site A</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>475</v>
+      </c>
+      <c r="G113" t="n">
+        <v>997.844000024519</v>
+      </c>
+      <c r="H113" t="n">
+        <v>6900</v>
+      </c>
+      <c r="I113" t="n">
+        <v>4567.8</v>
+      </c>
+      <c r="J113" t="n">
+        <v>44.8275862068966</v>
+      </c>
+      <c r="K113" t="n">
+        <v>79.31034482758621</v>
+      </c>
+      <c r="L113" t="n">
+        <v>420</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1428</v>
+      </c>
+      <c r="N113" t="n">
+        <v>3996.58</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1819568.572</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Porewa at u/s Hunterville STP Site A</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>475</v>
+      </c>
+      <c r="G114" t="n">
+        <v>997.844000024519</v>
+      </c>
+      <c r="H114" t="n">
+        <v>6900</v>
+      </c>
+      <c r="I114" t="n">
+        <v>4567.8</v>
+      </c>
+      <c r="J114" t="n">
+        <v>44.8275862068966</v>
+      </c>
+      <c r="K114" t="n">
+        <v>79.31034482758621</v>
+      </c>
+      <c r="L114" t="n">
+        <v>420</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1428</v>
+      </c>
+      <c r="N114" t="n">
+        <v>3996.58</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1819568.572</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Porewa at u/s Hunterville STP Site A</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>475</v>
+      </c>
+      <c r="G115" t="n">
+        <v>997.844000024519</v>
+      </c>
+      <c r="H115" t="n">
+        <v>6900</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4567.8</v>
+      </c>
+      <c r="J115" t="n">
+        <v>44.8275862068966</v>
+      </c>
+      <c r="K115" t="n">
+        <v>79.31034482758621</v>
+      </c>
+      <c r="L115" t="n">
+        <v>420</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1428</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3996.58</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1819568.572</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Porewa at u/s Hunterville STP Site A</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0.01512</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.018704387981807</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.11550500540332</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.04386</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>0.01625</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.02479</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.03629</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1819568.572</v>
+      </c>
+      <c r="P116" t="n">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Porewa at u/s Hunterville STP Site A</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0.01512</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.018704387981807</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.11550500540332</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.04386</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0.01625</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.02479</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.03629</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1819568.572</v>
+      </c>
+      <c r="P117" t="n">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Porewa at u/s Hunterville STP Site A</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0.1975</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.295109364629678</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.58756</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.7628</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1819568.572</v>
+      </c>
+      <c r="P118" t="n">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Porewa at u/s Hunterville STP Site A</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0.1975</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.295109364629678</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.58756</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.7628</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1819568.572</v>
+      </c>
+      <c r="P119" t="n">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Porewa at u/s Hunterville STP Site A</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0.2115</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.321792632797143</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.597</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1.0052</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.63472</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.79436</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1819568.572</v>
+      </c>
+      <c r="P120" t="n">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Porewa at u/s Hunterville STP Site A</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>0.2115</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.321792632797143</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.597</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1.0052</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.63472</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.79436</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1819568.572</v>
+      </c>
+      <c r="P121" t="n">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Porewa at u/s Hunterville STP Site A</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.911724137931034</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1.544</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1.4116</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1819568.572</v>
+      </c>
+      <c r="P122" t="n">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Porewa at u/s Hunterville STP Site A</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.911724137931034</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1.544</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1.4116</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1819568.572</v>
+      </c>
+      <c r="P123" t="n">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Porewa at u/s Hunterville STP Site A</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0.06850000000000001</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.1568</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.11364</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.13286</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1819568.572</v>
+      </c>
+      <c r="P124" t="n">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Porewa at u/s Hunterville STP Site A</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>0.06850000000000001</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.1568</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.11364</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.13286</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1819568.572</v>
+      </c>
+      <c r="P125" t="n">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>Rang_4c</t>
+        </is>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/PorewaatusHuntervilleSTPSiteA_abd3610be5.xlsx
+++ b/state_results/Rivers/PorewaatusHuntervilleSTPSiteA_abd3610be5.xlsx
@@ -894,13 +894,13 @@
         <v>523</v>
       </c>
       <c r="G6" t="n">
-        <v>1568.82029190474</v>
+        <v>1704.77192429007</v>
       </c>
       <c r="H6" t="n">
-        <v>14747.7167480932</v>
+        <v>18018.0833191313</v>
       </c>
       <c r="I6" t="n">
-        <v>9772.77671</v>
+        <v>10675.68828</v>
       </c>
       <c r="J6" t="n">
         <v>48.3333333333333</v>
@@ -979,13 +979,13 @@
         <v>523</v>
       </c>
       <c r="G7" t="n">
-        <v>1568.82029190474</v>
+        <v>1704.77192429007</v>
       </c>
       <c r="H7" t="n">
-        <v>14747.7167480932</v>
+        <v>18018.0833191313</v>
       </c>
       <c r="I7" t="n">
-        <v>9772.77671</v>
+        <v>10675.68828</v>
       </c>
       <c r="J7" t="n">
         <v>48.3333333333333</v>
@@ -1064,13 +1064,13 @@
         <v>523</v>
       </c>
       <c r="G8" t="n">
-        <v>1568.82029190474</v>
+        <v>1704.77192429007</v>
       </c>
       <c r="H8" t="n">
-        <v>14747.7167480932</v>
+        <v>18018.0833191313</v>
       </c>
       <c r="I8" t="n">
-        <v>9772.77671</v>
+        <v>10675.68828</v>
       </c>
       <c r="J8" t="n">
         <v>48.3333333333333</v>
@@ -1149,13 +1149,13 @@
         <v>523</v>
       </c>
       <c r="G9" t="n">
-        <v>1568.82029190474</v>
+        <v>1704.77192429007</v>
       </c>
       <c r="H9" t="n">
-        <v>14747.7167480932</v>
+        <v>18018.0833191313</v>
       </c>
       <c r="I9" t="n">
-        <v>9772.77671</v>
+        <v>10675.68828</v>
       </c>
       <c r="J9" t="n">
         <v>48.3333333333333</v>
@@ -2344,13 +2344,13 @@
         <v>538</v>
       </c>
       <c r="G24" t="n">
-        <v>1609.41303089166</v>
+        <v>1863.78477055056</v>
       </c>
       <c r="H24" t="n">
-        <v>14747.7167480932</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I24" t="n">
-        <v>10029.25038</v>
+        <v>12472.61607</v>
       </c>
       <c r="J24" t="n">
         <v>50</v>
@@ -2429,13 +2429,13 @@
         <v>538</v>
       </c>
       <c r="G25" t="n">
-        <v>1609.41303089166</v>
+        <v>1863.78477055056</v>
       </c>
       <c r="H25" t="n">
-        <v>14747.7167480932</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I25" t="n">
-        <v>10029.25038</v>
+        <v>12472.61607</v>
       </c>
       <c r="J25" t="n">
         <v>50</v>
@@ -2514,13 +2514,13 @@
         <v>538</v>
       </c>
       <c r="G26" t="n">
-        <v>1609.41303089166</v>
+        <v>1863.78477055056</v>
       </c>
       <c r="H26" t="n">
-        <v>14747.7167480932</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I26" t="n">
-        <v>10029.25038</v>
+        <v>12472.61607</v>
       </c>
       <c r="J26" t="n">
         <v>50</v>
@@ -2599,13 +2599,13 @@
         <v>538</v>
       </c>
       <c r="G27" t="n">
-        <v>1609.41303089166</v>
+        <v>1863.78477055056</v>
       </c>
       <c r="H27" t="n">
-        <v>14747.7167480932</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I27" t="n">
-        <v>10029.25038</v>
+        <v>12472.61607</v>
       </c>
       <c r="J27" t="n">
         <v>50</v>
@@ -3794,13 +3794,13 @@
         <v>565</v>
       </c>
       <c r="G42" t="n">
-        <v>1772.17969755833</v>
+        <v>2026.55143721723</v>
       </c>
       <c r="H42" t="n">
-        <v>14747.7167480932</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I42" t="n">
-        <v>10029.25038</v>
+        <v>12472.61607</v>
       </c>
       <c r="J42" t="n">
         <v>51.6666666666667</v>
@@ -3879,13 +3879,13 @@
         <v>565</v>
       </c>
       <c r="G43" t="n">
-        <v>1772.17969755833</v>
+        <v>2026.55143721723</v>
       </c>
       <c r="H43" t="n">
-        <v>14747.7167480932</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I43" t="n">
-        <v>10029.25038</v>
+        <v>12472.61607</v>
       </c>
       <c r="J43" t="n">
         <v>51.6666666666667</v>
@@ -3964,13 +3964,13 @@
         <v>565</v>
       </c>
       <c r="G44" t="n">
-        <v>1772.17969755833</v>
+        <v>2026.55143721723</v>
       </c>
       <c r="H44" t="n">
-        <v>14747.7167480932</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I44" t="n">
-        <v>10029.25038</v>
+        <v>12472.61607</v>
       </c>
       <c r="J44" t="n">
         <v>51.6666666666667</v>
@@ -4049,13 +4049,13 @@
         <v>565</v>
       </c>
       <c r="G45" t="n">
-        <v>1772.17969755833</v>
+        <v>2026.55143721723</v>
       </c>
       <c r="H45" t="n">
-        <v>14747.7167480932</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I45" t="n">
-        <v>10029.25038</v>
+        <v>12472.61607</v>
       </c>
       <c r="J45" t="n">
         <v>51.6666666666667</v>
@@ -5244,13 +5244,13 @@
         <v>620</v>
       </c>
       <c r="G60" t="n">
-        <v>1881.35223480508</v>
+        <v>2140.03535988193</v>
       </c>
       <c r="H60" t="n">
-        <v>14747.7167480932</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I60" t="n">
-        <v>10047.62008</v>
+        <v>12554.74002</v>
       </c>
       <c r="J60" t="n">
         <v>52.5423728813559</v>
@@ -5329,13 +5329,13 @@
         <v>620</v>
       </c>
       <c r="G61" t="n">
-        <v>1881.35223480508</v>
+        <v>2140.03535988193</v>
       </c>
       <c r="H61" t="n">
-        <v>14747.7167480932</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I61" t="n">
-        <v>10047.62008</v>
+        <v>12554.74002</v>
       </c>
       <c r="J61" t="n">
         <v>52.5423728813559</v>
@@ -5414,13 +5414,13 @@
         <v>620</v>
       </c>
       <c r="G62" t="n">
-        <v>1881.35223480508</v>
+        <v>2140.03535988193</v>
       </c>
       <c r="H62" t="n">
-        <v>14747.7167480932</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I62" t="n">
-        <v>10047.62008</v>
+        <v>12554.74002</v>
       </c>
       <c r="J62" t="n">
         <v>52.5423728813559</v>
@@ -5499,13 +5499,13 @@
         <v>620</v>
       </c>
       <c r="G63" t="n">
-        <v>1881.35223480508</v>
+        <v>2140.03535988193</v>
       </c>
       <c r="H63" t="n">
-        <v>14747.7167480932</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I63" t="n">
-        <v>10047.62008</v>
+        <v>12554.74002</v>
       </c>
       <c r="J63" t="n">
         <v>52.5423728813559</v>
@@ -6694,10 +6694,10 @@
         <v>630</v>
       </c>
       <c r="G78" t="n">
-        <v>1682.88612012388</v>
+        <v>1858.74328974171</v>
       </c>
       <c r="H78" t="n">
-        <v>14747.7167480932</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I78" t="n">
         <v>8440</v>
@@ -6779,10 +6779,10 @@
         <v>630</v>
       </c>
       <c r="G79" t="n">
-        <v>1682.88612012388</v>
+        <v>1858.74328974171</v>
       </c>
       <c r="H79" t="n">
-        <v>14747.7167480932</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I79" t="n">
         <v>8440</v>
@@ -6864,10 +6864,10 @@
         <v>630</v>
       </c>
       <c r="G80" t="n">
-        <v>1682.88612012388</v>
+        <v>1858.74328974171</v>
       </c>
       <c r="H80" t="n">
-        <v>14747.7167480932</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I80" t="n">
         <v>8440</v>
@@ -6949,10 +6949,10 @@
         <v>630</v>
       </c>
       <c r="G81" t="n">
-        <v>1682.88612012388</v>
+        <v>1858.74328974171</v>
       </c>
       <c r="H81" t="n">
-        <v>14747.7167480932</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I81" t="n">
         <v>8440</v>
@@ -8063,10 +8063,10 @@
         <v>520</v>
       </c>
       <c r="G95" t="n">
-        <v>1261.50890242479</v>
+        <v>1384.01246167331</v>
       </c>
       <c r="H95" t="n">
-        <v>13749.5643392157</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I95" t="n">
         <v>5045.2</v>
@@ -8148,10 +8148,10 @@
         <v>520</v>
       </c>
       <c r="G96" t="n">
-        <v>1261.50890242479</v>
+        <v>1384.01246167331</v>
       </c>
       <c r="H96" t="n">
-        <v>13749.5643392157</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I96" t="n">
         <v>5045.2</v>
@@ -8233,10 +8233,10 @@
         <v>520</v>
       </c>
       <c r="G97" t="n">
-        <v>1261.50890242479</v>
+        <v>1384.01246167331</v>
       </c>
       <c r="H97" t="n">
-        <v>13749.5643392157</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I97" t="n">
         <v>5045.2</v>
@@ -8318,10 +8318,10 @@
         <v>520</v>
       </c>
       <c r="G98" t="n">
-        <v>1261.50890242479</v>
+        <v>1384.01246167331</v>
       </c>
       <c r="H98" t="n">
-        <v>13749.5643392157</v>
+        <v>20854.7707756298</v>
       </c>
       <c r="I98" t="n">
         <v>5045.2</v>

--- a/state_results/Rivers/PorewaatusHuntervilleSTPSiteA_abd3610be5.xlsx
+++ b/state_results/Rivers/PorewaatusHuntervilleSTPSiteA_abd3610be5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="67">
   <si>
     <t>site name</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -569,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U125"/>
+  <dimension ref="A1:U142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,7 +657,7 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>40.25</v>
@@ -669,7 +672,7 @@
         <v>149</v>
       </c>
       <c r="L2">
-        <v>40.5</v>
+        <v>30</v>
       </c>
       <c r="M2">
         <v>94.90000000000001</v>
@@ -684,19 +687,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -713,13 +716,13 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>0.4</v>
       </c>
       <c r="G3">
-        <v>0.611687438194247</v>
+        <v>0.61169948765527</v>
       </c>
       <c r="H3">
         <v>2.1</v>
@@ -728,7 +731,7 @@
         <v>2.045</v>
       </c>
       <c r="L3">
-        <v>0.46</v>
+        <v>0.355</v>
       </c>
       <c r="M3">
         <v>1.206</v>
@@ -743,19 +746,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -772,13 +775,13 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4">
         <v>0.016</v>
       </c>
       <c r="G4">
-        <v>0.0199538886713945</v>
+        <v>0.0199566608531381</v>
       </c>
       <c r="H4">
         <v>0.184</v>
@@ -787,7 +790,7 @@
         <v>0.045</v>
       </c>
       <c r="L4">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="M4">
         <v>0.0249</v>
@@ -802,19 +805,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -831,13 +834,13 @@
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5">
         <v>0.016</v>
       </c>
       <c r="G5">
-        <v>0.0199538886713945</v>
+        <v>0.0199566608531381</v>
       </c>
       <c r="H5">
         <v>0.184</v>
@@ -846,7 +849,7 @@
         <v>0.045</v>
       </c>
       <c r="L5">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="M5">
         <v>0.0249</v>
@@ -861,19 +864,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -890,19 +893,19 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6">
         <v>523</v>
       </c>
       <c r="G6">
-        <v>1696.63753787507</v>
+        <v>1520.91142108084</v>
       </c>
       <c r="H6">
-        <v>20406.1670502103</v>
+        <v>11257.9521671445</v>
       </c>
       <c r="I6">
-        <v>9866.066210000001</v>
+        <v>9797.460489999999</v>
       </c>
       <c r="J6">
         <v>48.3333333333333</v>
@@ -911,7 +914,7 @@
         <v>73.3333333333333</v>
       </c>
       <c r="L6">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M6">
         <v>2095.4</v>
@@ -926,19 +929,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -955,19 +958,19 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7">
         <v>523</v>
       </c>
       <c r="G7">
-        <v>1696.63753787507</v>
+        <v>1520.91142108084</v>
       </c>
       <c r="H7">
-        <v>20406.1670502103</v>
+        <v>11257.9521671445</v>
       </c>
       <c r="I7">
-        <v>9866.066210000001</v>
+        <v>9797.460489999999</v>
       </c>
       <c r="J7">
         <v>48.3333333333333</v>
@@ -976,7 +979,7 @@
         <v>73.3333333333333</v>
       </c>
       <c r="L7">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M7">
         <v>2095.4</v>
@@ -991,19 +994,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1020,19 +1023,19 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8">
         <v>523</v>
       </c>
       <c r="G8">
-        <v>1696.63753787507</v>
+        <v>1520.91142108084</v>
       </c>
       <c r="H8">
-        <v>20406.1670502103</v>
+        <v>11257.9521671445</v>
       </c>
       <c r="I8">
-        <v>9866.066210000001</v>
+        <v>9797.460489999999</v>
       </c>
       <c r="J8">
         <v>48.3333333333333</v>
@@ -1041,7 +1044,7 @@
         <v>73.3333333333333</v>
       </c>
       <c r="L8">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M8">
         <v>2095.4</v>
@@ -1056,19 +1059,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1085,19 +1088,19 @@
         <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9">
         <v>523</v>
       </c>
       <c r="G9">
-        <v>1696.63753787507</v>
+        <v>1520.91142108084</v>
       </c>
       <c r="H9">
-        <v>20406.1670502103</v>
+        <v>11257.9521671445</v>
       </c>
       <c r="I9">
-        <v>9866.066210000001</v>
+        <v>9797.460489999999</v>
       </c>
       <c r="J9">
         <v>48.3333333333333</v>
@@ -1106,7 +1109,7 @@
         <v>73.3333333333333</v>
       </c>
       <c r="L9">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M9">
         <v>2095.4</v>
@@ -1121,19 +1124,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1144,34 +1147,34 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10">
-        <v>0.00713</v>
+        <v>0.00265</v>
       </c>
       <c r="G10">
-        <v>0.0124739802357466</v>
+        <v>0.009043651631274199</v>
       </c>
       <c r="H10">
         <v>0.0697037461523965</v>
       </c>
       <c r="I10">
-        <v>0.05023</v>
+        <v>0.04213</v>
       </c>
       <c r="L10">
-        <v>0.00636</v>
+        <v>0.00216</v>
       </c>
       <c r="M10">
-        <v>0.02125</v>
+        <v>0.01487</v>
       </c>
       <c r="N10">
-        <v>0.04861</v>
+        <v>0.02553</v>
       </c>
       <c r="O10">
         <v>1819568.572</v>
@@ -1180,19 +1183,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1209,28 +1212,28 @@
         <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11">
-        <v>0.00713</v>
+        <v>0.00265</v>
       </c>
       <c r="G11">
-        <v>0.0124739802357466</v>
+        <v>0.009043651631274199</v>
       </c>
       <c r="H11">
         <v>0.0697037461523965</v>
       </c>
       <c r="I11">
-        <v>0.05023</v>
+        <v>0.04213</v>
       </c>
       <c r="L11">
-        <v>0.00636</v>
+        <v>0.00216</v>
       </c>
       <c r="M11">
-        <v>0.02125</v>
+        <v>0.01487</v>
       </c>
       <c r="N11">
-        <v>0.04861</v>
+        <v>0.02553</v>
       </c>
       <c r="O11">
         <v>1819568.572</v>
@@ -1239,19 +1242,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1268,13 +1271,13 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12">
         <v>0.1675</v>
       </c>
       <c r="G12">
-        <v>0.217370865654309</v>
+        <v>0.217336633460507</v>
       </c>
       <c r="H12">
         <v>1.0304</v>
@@ -1283,7 +1286,7 @@
         <v>0.75215</v>
       </c>
       <c r="L12">
-        <v>0.002</v>
+        <v>0.00286</v>
       </c>
       <c r="M12">
         <v>0.4488</v>
@@ -1298,19 +1301,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1327,13 +1330,13 @@
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13">
         <v>0.1675</v>
       </c>
       <c r="G13">
-        <v>0.217370865654309</v>
+        <v>0.217336633460507</v>
       </c>
       <c r="H13">
         <v>1.0304</v>
@@ -1342,7 +1345,7 @@
         <v>0.75215</v>
       </c>
       <c r="L13">
-        <v>0.002</v>
+        <v>0.00286</v>
       </c>
       <c r="M13">
         <v>0.4488</v>
@@ -1357,19 +1360,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1383,13 +1386,13 @@
         <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14">
         <v>0.1925</v>
       </c>
       <c r="G14">
-        <v>0.237783169292727</v>
+        <v>0.237177164303497</v>
       </c>
       <c r="H14">
         <v>1.0622</v>
@@ -1398,7 +1401,7 @@
         <v>0.8222</v>
       </c>
       <c r="L14">
-        <v>0.01015</v>
+        <v>0.01117</v>
       </c>
       <c r="M14">
         <v>0.4802</v>
@@ -1413,19 +1416,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1439,13 +1442,13 @@
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15">
         <v>0.1925</v>
       </c>
       <c r="G15">
-        <v>0.237783169292727</v>
+        <v>0.237177164303497</v>
       </c>
       <c r="H15">
         <v>1.0622</v>
@@ -1454,7 +1457,7 @@
         <v>0.8222</v>
       </c>
       <c r="L15">
-        <v>0.01015</v>
+        <v>0.01117</v>
       </c>
       <c r="M15">
         <v>0.4802</v>
@@ -1469,19 +1472,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1495,7 +1498,7 @@
         <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16">
         <v>0.761</v>
@@ -1510,7 +1513,7 @@
         <v>1.7045</v>
       </c>
       <c r="L16">
-        <v>0.67</v>
+        <v>0.7095</v>
       </c>
       <c r="M16">
         <v>1.169</v>
@@ -1525,19 +1528,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1551,7 +1554,7 @@
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17">
         <v>0.761</v>
@@ -1566,7 +1569,7 @@
         <v>1.7045</v>
       </c>
       <c r="L17">
-        <v>0.67</v>
+        <v>0.7095</v>
       </c>
       <c r="M17">
         <v>1.169</v>
@@ -1581,19 +1584,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1607,7 +1610,7 @@
         <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18">
         <v>0.06900000000000001</v>
@@ -1622,7 +1625,7 @@
         <v>0.225</v>
       </c>
       <c r="L18">
-        <v>0.06900000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M18">
         <v>0.1099</v>
@@ -1637,19 +1640,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1663,7 +1666,7 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F19">
         <v>0.06900000000000001</v>
@@ -1678,7 +1681,7 @@
         <v>0.225</v>
       </c>
       <c r="L19">
-        <v>0.06900000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M19">
         <v>0.1099</v>
@@ -1693,19 +1696,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1722,7 +1725,7 @@
         <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20">
         <v>47.75</v>
@@ -1737,7 +1740,7 @@
         <v>162</v>
       </c>
       <c r="L20">
-        <v>48.5</v>
+        <v>35.5</v>
       </c>
       <c r="M20">
         <v>89.8</v>
@@ -1752,19 +1755,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1781,13 +1784,13 @@
         <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21">
         <v>0.33</v>
       </c>
       <c r="G21">
-        <v>0.492482281868786</v>
+        <v>0.492493021605784</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1796,7 +1799,7 @@
         <v>1.64</v>
       </c>
       <c r="L21">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
       <c r="M21">
         <v>0.8976</v>
@@ -1811,19 +1814,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1840,13 +1843,13 @@
         <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22">
         <v>0.016</v>
       </c>
       <c r="G22">
-        <v>0.0194372220047279</v>
+        <v>0.0194399941864715</v>
       </c>
       <c r="H22">
         <v>0.184</v>
@@ -1855,7 +1858,7 @@
         <v>0.038</v>
       </c>
       <c r="L22">
-        <v>0.019</v>
+        <v>0.0185</v>
       </c>
       <c r="M22">
         <v>0.0246</v>
@@ -1870,19 +1873,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1899,13 +1902,13 @@
         <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23">
         <v>0.016</v>
       </c>
       <c r="G23">
-        <v>0.0194372220047279</v>
+        <v>0.0194399941864715</v>
       </c>
       <c r="H23">
         <v>0.184</v>
@@ -1914,7 +1917,7 @@
         <v>0.038</v>
       </c>
       <c r="L23">
-        <v>0.019</v>
+        <v>0.0185</v>
       </c>
       <c r="M23">
         <v>0.0246</v>
@@ -1929,19 +1932,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1958,19 +1961,19 @@
         <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24">
         <v>538</v>
       </c>
       <c r="G24">
-        <v>1815.65819300947</v>
+        <v>1519.86417525835</v>
       </c>
       <c r="H24">
-        <v>20406.1670502103</v>
+        <v>11257.9521671445</v>
       </c>
       <c r="I24">
-        <v>11034.54261</v>
+        <v>10336.86655</v>
       </c>
       <c r="J24">
         <v>50</v>
@@ -1979,7 +1982,7 @@
         <v>76.6666666666667</v>
       </c>
       <c r="L24">
-        <v>605</v>
+        <v>640</v>
       </c>
       <c r="M24">
         <v>1630</v>
@@ -1994,19 +1997,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2023,19 +2026,19 @@
         <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25">
         <v>538</v>
       </c>
       <c r="G25">
-        <v>1815.65819300947</v>
+        <v>1519.86417525835</v>
       </c>
       <c r="H25">
-        <v>20406.1670502103</v>
+        <v>11257.9521671445</v>
       </c>
       <c r="I25">
-        <v>11034.54261</v>
+        <v>10336.86655</v>
       </c>
       <c r="J25">
         <v>50</v>
@@ -2044,7 +2047,7 @@
         <v>76.6666666666667</v>
       </c>
       <c r="L25">
-        <v>605</v>
+        <v>640</v>
       </c>
       <c r="M25">
         <v>1630</v>
@@ -2059,19 +2062,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2088,19 +2091,19 @@
         <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26">
         <v>538</v>
       </c>
       <c r="G26">
-        <v>1815.65819300947</v>
+        <v>1519.86417525835</v>
       </c>
       <c r="H26">
-        <v>20406.1670502103</v>
+        <v>11257.9521671445</v>
       </c>
       <c r="I26">
-        <v>11034.54261</v>
+        <v>10336.86655</v>
       </c>
       <c r="J26">
         <v>50</v>
@@ -2109,7 +2112,7 @@
         <v>76.6666666666667</v>
       </c>
       <c r="L26">
-        <v>605</v>
+        <v>640</v>
       </c>
       <c r="M26">
         <v>1630</v>
@@ -2124,19 +2127,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2153,19 +2156,19 @@
         <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F27">
         <v>538</v>
       </c>
       <c r="G27">
-        <v>1815.65819300947</v>
+        <v>1519.86417525835</v>
       </c>
       <c r="H27">
-        <v>20406.1670502103</v>
+        <v>11257.9521671445</v>
       </c>
       <c r="I27">
-        <v>11034.54261</v>
+        <v>10336.86655</v>
       </c>
       <c r="J27">
         <v>50</v>
@@ -2174,7 +2177,7 @@
         <v>76.6666666666667</v>
       </c>
       <c r="L27">
-        <v>605</v>
+        <v>640</v>
       </c>
       <c r="M27">
         <v>1630</v>
@@ -2189,19 +2192,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2218,28 +2221,28 @@
         <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F28">
-        <v>0.00759</v>
+        <v>0.00641</v>
       </c>
       <c r="G28">
-        <v>0.0123766235353128</v>
+        <v>0.0097150252645638</v>
       </c>
       <c r="H28">
         <v>0.0697037461523965</v>
       </c>
       <c r="I28">
-        <v>0.05</v>
+        <v>0.02859</v>
       </c>
       <c r="L28">
-        <v>0.00529</v>
+        <v>0.00622</v>
       </c>
       <c r="M28">
-        <v>0.0195</v>
+        <v>0.0161</v>
       </c>
       <c r="N28">
-        <v>0.03125</v>
+        <v>0.02584</v>
       </c>
       <c r="O28">
         <v>1819568.572</v>
@@ -2248,19 +2251,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2277,28 +2280,28 @@
         <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F29">
-        <v>0.00759</v>
+        <v>0.00641</v>
       </c>
       <c r="G29">
-        <v>0.0123766235353128</v>
+        <v>0.0097150252645638</v>
       </c>
       <c r="H29">
         <v>0.0697037461523965</v>
       </c>
       <c r="I29">
-        <v>0.05</v>
+        <v>0.02859</v>
       </c>
       <c r="L29">
-        <v>0.00529</v>
+        <v>0.00622</v>
       </c>
       <c r="M29">
-        <v>0.0195</v>
+        <v>0.0161</v>
       </c>
       <c r="N29">
-        <v>0.03125</v>
+        <v>0.02584</v>
       </c>
       <c r="O29">
         <v>1819568.572</v>
@@ -2307,19 +2310,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2336,13 +2339,13 @@
         <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F30">
         <v>0.212</v>
       </c>
       <c r="G30">
-        <v>0.229317467530055</v>
+        <v>0.229375680105944</v>
       </c>
       <c r="H30">
         <v>1.0304</v>
@@ -2351,7 +2354,7 @@
         <v>0.70585</v>
       </c>
       <c r="L30">
-        <v>0.0028</v>
+        <v>0.00577</v>
       </c>
       <c r="M30">
         <v>0.4398</v>
@@ -2366,19 +2369,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2395,13 +2398,13 @@
         <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F31">
         <v>0.212</v>
       </c>
       <c r="G31">
-        <v>0.229317467530055</v>
+        <v>0.229375680105944</v>
       </c>
       <c r="H31">
         <v>1.0304</v>
@@ -2410,7 +2413,7 @@
         <v>0.70585</v>
       </c>
       <c r="L31">
-        <v>0.0028</v>
+        <v>0.00577</v>
       </c>
       <c r="M31">
         <v>0.4398</v>
@@ -2425,19 +2428,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2451,13 +2454,13 @@
         <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F32">
         <v>0.22605</v>
       </c>
       <c r="G32">
-        <v>0.250233653172288</v>
+        <v>0.250007889331138</v>
       </c>
       <c r="H32">
         <v>1.0622</v>
@@ -2466,7 +2469,7 @@
         <v>0.731</v>
       </c>
       <c r="L32">
-        <v>0.0126</v>
+        <v>0.0195</v>
       </c>
       <c r="M32">
         <v>0.47</v>
@@ -2481,19 +2484,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2507,13 +2510,13 @@
         <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F33">
         <v>0.22605</v>
       </c>
       <c r="G33">
-        <v>0.250233653172288</v>
+        <v>0.250007889331138</v>
       </c>
       <c r="H33">
         <v>1.0622</v>
@@ -2522,7 +2525,7 @@
         <v>0.731</v>
       </c>
       <c r="L33">
-        <v>0.0126</v>
+        <v>0.0195</v>
       </c>
       <c r="M33">
         <v>0.47</v>
@@ -2537,19 +2540,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2563,7 +2566,7 @@
         <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F34">
         <v>0.8205</v>
@@ -2578,7 +2581,7 @@
         <v>1.6</v>
       </c>
       <c r="L34">
-        <v>0.71</v>
+        <v>0.7325</v>
       </c>
       <c r="M34">
         <v>1.183</v>
@@ -2593,19 +2596,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2619,7 +2622,7 @@
         <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F35">
         <v>0.8205</v>
@@ -2634,7 +2637,7 @@
         <v>1.6</v>
       </c>
       <c r="L35">
-        <v>0.71</v>
+        <v>0.7325</v>
       </c>
       <c r="M35">
         <v>1.183</v>
@@ -2649,19 +2652,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2675,7 +2678,7 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F36">
         <v>0.0725</v>
@@ -2690,7 +2693,7 @@
         <v>0.226</v>
       </c>
       <c r="L36">
-        <v>0.07199999999999999</v>
+        <v>0.0735</v>
       </c>
       <c r="M36">
         <v>0.1202</v>
@@ -2705,19 +2708,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2731,7 +2734,7 @@
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F37">
         <v>0.0725</v>
@@ -2746,7 +2749,7 @@
         <v>0.226</v>
       </c>
       <c r="L37">
-        <v>0.07199999999999999</v>
+        <v>0.0735</v>
       </c>
       <c r="M37">
         <v>0.1202</v>
@@ -2761,19 +2764,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2790,7 +2793,7 @@
         <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F38">
         <v>48.5</v>
@@ -2805,7 +2808,7 @@
         <v>144.25</v>
       </c>
       <c r="L38">
-        <v>48.5</v>
+        <v>40.5</v>
       </c>
       <c r="M38">
         <v>104.9</v>
@@ -2820,19 +2823,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2849,13 +2852,13 @@
         <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F39">
         <v>0.25</v>
       </c>
       <c r="G39">
-        <v>0.326143836417771</v>
+        <v>0.326155325438745</v>
       </c>
       <c r="H39">
         <v>1.02</v>
@@ -2864,7 +2867,7 @@
         <v>0.948</v>
       </c>
       <c r="L39">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="M39">
         <v>0.5461</v>
@@ -2879,19 +2882,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2908,13 +2911,13 @@
         <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F40">
         <v>0.0165</v>
       </c>
       <c r="G40">
-        <v>0.0203538886713945</v>
+        <v>0.0203566608531381</v>
       </c>
       <c r="H40">
         <v>0.184</v>
@@ -2938,19 +2941,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2967,13 +2970,13 @@
         <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F41">
         <v>0.0165</v>
       </c>
       <c r="G41">
-        <v>0.0203538886713945</v>
+        <v>0.0203566608531381</v>
       </c>
       <c r="H41">
         <v>0.184</v>
@@ -2997,19 +3000,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3026,19 +3029,19 @@
         <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F42">
         <v>565</v>
       </c>
       <c r="G42">
-        <v>1978.42485967614</v>
+        <v>1682.63084192501</v>
       </c>
       <c r="H42">
-        <v>20406.1670502103</v>
+        <v>11257.9521671445</v>
       </c>
       <c r="I42">
-        <v>11034.54261</v>
+        <v>10336.86655</v>
       </c>
       <c r="J42">
         <v>51.6666666666667</v>
@@ -3047,7 +3050,7 @@
         <v>81.6666666666667</v>
       </c>
       <c r="L42">
-        <v>535</v>
+        <v>605</v>
       </c>
       <c r="M42">
         <v>2000</v>
@@ -3062,19 +3065,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3091,19 +3094,19 @@
         <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F43">
         <v>565</v>
       </c>
       <c r="G43">
-        <v>1978.42485967614</v>
+        <v>1682.63084192501</v>
       </c>
       <c r="H43">
-        <v>20406.1670502103</v>
+        <v>11257.9521671445</v>
       </c>
       <c r="I43">
-        <v>11034.54261</v>
+        <v>10336.86655</v>
       </c>
       <c r="J43">
         <v>51.6666666666667</v>
@@ -3112,7 +3115,7 @@
         <v>81.6666666666667</v>
       </c>
       <c r="L43">
-        <v>535</v>
+        <v>605</v>
       </c>
       <c r="M43">
         <v>2000</v>
@@ -3127,19 +3130,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3156,19 +3159,19 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F44">
         <v>565</v>
       </c>
       <c r="G44">
-        <v>1978.42485967614</v>
+        <v>1682.63084192501</v>
       </c>
       <c r="H44">
-        <v>20406.1670502103</v>
+        <v>11257.9521671445</v>
       </c>
       <c r="I44">
-        <v>11034.54261</v>
+        <v>10336.86655</v>
       </c>
       <c r="J44">
         <v>51.6666666666667</v>
@@ -3177,7 +3180,7 @@
         <v>81.6666666666667</v>
       </c>
       <c r="L44">
-        <v>535</v>
+        <v>605</v>
       </c>
       <c r="M44">
         <v>2000</v>
@@ -3192,19 +3195,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3221,19 +3224,19 @@
         <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F45">
         <v>565</v>
       </c>
       <c r="G45">
-        <v>1978.42485967614</v>
+        <v>1682.63084192501</v>
       </c>
       <c r="H45">
-        <v>20406.1670502103</v>
+        <v>11257.9521671445</v>
       </c>
       <c r="I45">
-        <v>11034.54261</v>
+        <v>10336.86655</v>
       </c>
       <c r="J45">
         <v>51.6666666666667</v>
@@ -3242,7 +3245,7 @@
         <v>81.6666666666667</v>
       </c>
       <c r="L45">
-        <v>535</v>
+        <v>605</v>
       </c>
       <c r="M45">
         <v>2000</v>
@@ -3257,19 +3260,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3286,28 +3289,28 @@
         <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F46">
-        <v>0.01001</v>
+        <v>0.008659999999999999</v>
       </c>
       <c r="G46">
-        <v>0.0156739345588293</v>
+        <v>0.0145472028100426</v>
       </c>
       <c r="H46">
         <v>0.11550500540332</v>
       </c>
       <c r="I46">
-        <v>0.05232</v>
+        <v>0.05155</v>
       </c>
       <c r="L46">
-        <v>0.00776</v>
+        <v>0.008659999999999999</v>
       </c>
       <c r="M46">
-        <v>0.02554</v>
+        <v>0.02384</v>
       </c>
       <c r="N46">
-        <v>0.04686</v>
+        <v>0.03491</v>
       </c>
       <c r="O46">
         <v>1819568.572</v>
@@ -3316,19 +3319,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3345,28 +3348,28 @@
         <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F47">
-        <v>0.01001</v>
+        <v>0.008659999999999999</v>
       </c>
       <c r="G47">
-        <v>0.0156739345588293</v>
+        <v>0.0145472028100426</v>
       </c>
       <c r="H47">
         <v>0.11550500540332</v>
       </c>
       <c r="I47">
-        <v>0.05232</v>
+        <v>0.05155</v>
       </c>
       <c r="L47">
-        <v>0.00776</v>
+        <v>0.008659999999999999</v>
       </c>
       <c r="M47">
-        <v>0.02554</v>
+        <v>0.02384</v>
       </c>
       <c r="N47">
-        <v>0.04686</v>
+        <v>0.03491</v>
       </c>
       <c r="O47">
         <v>1819568.572</v>
@@ -3375,19 +3378,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3404,13 +3407,13 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F48">
         <v>0.212</v>
       </c>
       <c r="G48">
-        <v>0.239431781747333</v>
+        <v>0.239648186298991</v>
       </c>
       <c r="H48">
         <v>1.07</v>
@@ -3419,7 +3422,7 @@
         <v>0.6913</v>
       </c>
       <c r="L48">
-        <v>0.00392</v>
+        <v>0.0069</v>
       </c>
       <c r="M48">
         <v>0.4614</v>
@@ -3434,19 +3437,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3463,13 +3466,13 @@
         <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F49">
         <v>0.212</v>
       </c>
       <c r="G49">
-        <v>0.239431781747333</v>
+        <v>0.239648186298991</v>
       </c>
       <c r="H49">
         <v>1.07</v>
@@ -3478,7 +3481,7 @@
         <v>0.6913</v>
       </c>
       <c r="L49">
-        <v>0.00392</v>
+        <v>0.0069</v>
       </c>
       <c r="M49">
         <v>0.4614</v>
@@ -3493,19 +3496,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3519,13 +3522,13 @@
         <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F50">
         <v>0.2275</v>
       </c>
       <c r="G50">
-        <v>0.261781531542859</v>
+        <v>0.261996043889547</v>
       </c>
       <c r="H50">
         <v>1.12</v>
@@ -3534,7 +3537,7 @@
         <v>0.72345</v>
       </c>
       <c r="L50">
-        <v>0.01382</v>
+        <v>0.02015</v>
       </c>
       <c r="M50">
         <v>0.488</v>
@@ -3549,19 +3552,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3575,13 +3578,13 @@
         <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F51">
         <v>0.2275</v>
       </c>
       <c r="G51">
-        <v>0.261781531542859</v>
+        <v>0.261996043889547</v>
       </c>
       <c r="H51">
         <v>1.12</v>
@@ -3590,7 +3593,7 @@
         <v>0.72345</v>
       </c>
       <c r="L51">
-        <v>0.01382</v>
+        <v>0.02015</v>
       </c>
       <c r="M51">
         <v>0.488</v>
@@ -3605,19 +3608,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3631,7 +3634,7 @@
         <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F52">
         <v>0.8255</v>
@@ -3646,7 +3649,7 @@
         <v>1.555</v>
       </c>
       <c r="L52">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="M52">
         <v>1.183</v>
@@ -3661,19 +3664,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3687,7 +3690,7 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F53">
         <v>0.8255</v>
@@ -3702,7 +3705,7 @@
         <v>1.555</v>
       </c>
       <c r="L53">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="M53">
         <v>1.183</v>
@@ -3717,19 +3720,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3743,7 +3746,7 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F54">
         <v>0.074</v>
@@ -3758,7 +3761,7 @@
         <v>0.226</v>
       </c>
       <c r="L54">
-        <v>0.0735</v>
+        <v>0.0775</v>
       </c>
       <c r="M54">
         <v>0.1291</v>
@@ -3773,19 +3776,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3799,7 +3802,7 @@
         <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F55">
         <v>0.074</v>
@@ -3814,7 +3817,7 @@
         <v>0.226</v>
       </c>
       <c r="L55">
-        <v>0.0735</v>
+        <v>0.0775</v>
       </c>
       <c r="M55">
         <v>0.1291</v>
@@ -3829,19 +3832,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3858,7 +3861,7 @@
         <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F56">
         <v>48.5</v>
@@ -3873,7 +3876,7 @@
         <v>138</v>
       </c>
       <c r="L56">
-        <v>39.25</v>
+        <v>33</v>
       </c>
       <c r="M56">
         <v>100</v>
@@ -3888,19 +3891,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3917,7 +3920,7 @@
         <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F57">
         <v>0.285</v>
@@ -3932,7 +3935,7 @@
         <v>0.92</v>
       </c>
       <c r="L57">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="M57">
         <v>0.48</v>
@@ -3947,19 +3950,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3976,13 +3979,13 @@
         <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F58">
         <v>0.017</v>
       </c>
       <c r="G58">
-        <v>0.0190717511912487</v>
+        <v>0.0190745703591235</v>
       </c>
       <c r="H58">
         <v>0.063</v>
@@ -4006,19 +4009,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4035,13 +4038,13 @@
         <v>48</v>
       </c>
       <c r="E59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F59">
         <v>0.017</v>
       </c>
       <c r="G59">
-        <v>0.0190717511912487</v>
+        <v>0.0190745703591235</v>
       </c>
       <c r="H59">
         <v>0.063</v>
@@ -4065,19 +4068,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4094,19 +4097,19 @@
         <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F60">
         <v>620</v>
       </c>
       <c r="G60">
-        <v>2091.09307763675</v>
+        <v>1790.28560195764</v>
       </c>
       <c r="H60">
-        <v>20406.1670502103</v>
+        <v>11257.9521671445</v>
       </c>
       <c r="I60">
-        <v>11134.78363</v>
+        <v>10381.0611</v>
       </c>
       <c r="J60">
         <v>52.5423728813559</v>
@@ -4115,7 +4118,7 @@
         <v>83.0508474576271</v>
       </c>
       <c r="L60">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="M60">
         <v>2517</v>
@@ -4130,19 +4133,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4159,19 +4162,19 @@
         <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F61">
         <v>620</v>
       </c>
       <c r="G61">
-        <v>2091.09307763675</v>
+        <v>1790.28560195764</v>
       </c>
       <c r="H61">
-        <v>20406.1670502103</v>
+        <v>11257.9521671445</v>
       </c>
       <c r="I61">
-        <v>11134.78363</v>
+        <v>10381.0611</v>
       </c>
       <c r="J61">
         <v>52.5423728813559</v>
@@ -4180,7 +4183,7 @@
         <v>83.0508474576271</v>
       </c>
       <c r="L61">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="M61">
         <v>2517</v>
@@ -4195,19 +4198,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4224,19 +4227,19 @@
         <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F62">
         <v>620</v>
       </c>
       <c r="G62">
-        <v>2091.09307763675</v>
+        <v>1790.28560195764</v>
       </c>
       <c r="H62">
-        <v>20406.1670502103</v>
+        <v>11257.9521671445</v>
       </c>
       <c r="I62">
-        <v>11134.78363</v>
+        <v>10381.0611</v>
       </c>
       <c r="J62">
         <v>52.5423728813559</v>
@@ -4245,7 +4248,7 @@
         <v>83.0508474576271</v>
       </c>
       <c r="L62">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="M62">
         <v>2517</v>
@@ -4260,19 +4263,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4289,19 +4292,19 @@
         <v>48</v>
       </c>
       <c r="E63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F63">
         <v>620</v>
       </c>
       <c r="G63">
-        <v>2091.09307763675</v>
+        <v>1790.28560195764</v>
       </c>
       <c r="H63">
-        <v>20406.1670502103</v>
+        <v>11257.9521671445</v>
       </c>
       <c r="I63">
-        <v>11134.78363</v>
+        <v>10381.0611</v>
       </c>
       <c r="J63">
         <v>52.5423728813559</v>
@@ -4310,7 +4313,7 @@
         <v>83.0508474576271</v>
       </c>
       <c r="L63">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="M63">
         <v>2517</v>
@@ -4325,19 +4328,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4354,28 +4357,28 @@
         <v>48</v>
       </c>
       <c r="E64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F64">
         <v>0.01171</v>
       </c>
       <c r="G64">
-        <v>0.0162639109287007</v>
+        <v>0.0159953183023031</v>
       </c>
       <c r="H64">
         <v>0.11550500540332</v>
       </c>
       <c r="I64">
-        <v>0.04443</v>
+        <v>0.04411</v>
       </c>
       <c r="L64">
-        <v>0.0125</v>
+        <v>0.01498</v>
       </c>
       <c r="M64">
         <v>0.0249</v>
       </c>
       <c r="N64">
-        <v>0.03058</v>
+        <v>0.03002</v>
       </c>
       <c r="O64">
         <v>1819568.572</v>
@@ -4384,19 +4387,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4413,28 +4416,28 @@
         <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F65">
         <v>0.01171</v>
       </c>
       <c r="G65">
-        <v>0.0162639109287007</v>
+        <v>0.0159953183023031</v>
       </c>
       <c r="H65">
         <v>0.11550500540332</v>
       </c>
       <c r="I65">
-        <v>0.04443</v>
+        <v>0.04411</v>
       </c>
       <c r="L65">
-        <v>0.0125</v>
+        <v>0.01498</v>
       </c>
       <c r="M65">
         <v>0.0249</v>
       </c>
       <c r="N65">
-        <v>0.03058</v>
+        <v>0.03002</v>
       </c>
       <c r="O65">
         <v>1819568.572</v>
@@ -4443,19 +4446,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4472,13 +4475,13 @@
         <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F66">
         <v>0.22</v>
       </c>
       <c r="G66">
-        <v>0.246009923127672</v>
+        <v>0.246259891464849</v>
       </c>
       <c r="H66">
         <v>1.07</v>
@@ -4487,7 +4490,7 @@
         <v>0.64845</v>
       </c>
       <c r="L66">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M66">
         <v>0.48239</v>
@@ -4502,19 +4505,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4531,13 +4534,13 @@
         <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F67">
         <v>0.22</v>
       </c>
       <c r="G67">
-        <v>0.246009923127672</v>
+        <v>0.246259891464849</v>
       </c>
       <c r="H67">
         <v>1.07</v>
@@ -4546,7 +4549,7 @@
         <v>0.64845</v>
       </c>
       <c r="L67">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M67">
         <v>0.48239</v>
@@ -4561,19 +4564,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4587,13 +4590,13 @@
         <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F68">
         <v>0.24</v>
       </c>
       <c r="G68">
-        <v>0.27023615331083</v>
+        <v>0.270443425048239</v>
       </c>
       <c r="H68">
         <v>1.12</v>
@@ -4602,7 +4605,7 @@
         <v>0.6909999999999999</v>
       </c>
       <c r="L68">
-        <v>0.0255</v>
+        <v>0.029</v>
       </c>
       <c r="M68">
         <v>0.52841</v>
@@ -4617,19 +4620,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4643,13 +4646,13 @@
         <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F69">
         <v>0.24</v>
       </c>
       <c r="G69">
-        <v>0.27023615331083</v>
+        <v>0.270443425048239</v>
       </c>
       <c r="H69">
         <v>1.12</v>
@@ -4658,7 +4661,7 @@
         <v>0.6909999999999999</v>
       </c>
       <c r="L69">
-        <v>0.0255</v>
+        <v>0.029</v>
       </c>
       <c r="M69">
         <v>0.52841</v>
@@ -4673,19 +4676,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4699,7 +4702,7 @@
         <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F70">
         <v>0.86</v>
@@ -4714,7 +4717,7 @@
         <v>1.542</v>
       </c>
       <c r="L70">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="M70">
         <v>1.1694</v>
@@ -4729,19 +4732,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4755,7 +4758,7 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F71">
         <v>0.86</v>
@@ -4770,7 +4773,7 @@
         <v>1.542</v>
       </c>
       <c r="L71">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="M71">
         <v>1.1694</v>
@@ -4785,19 +4788,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4811,7 +4814,7 @@
         <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F72">
         <v>0.074</v>
@@ -4841,19 +4844,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4867,7 +4870,7 @@
         <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F73">
         <v>0.074</v>
@@ -4897,19 +4900,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U73" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4926,7 +4929,7 @@
         <v>49</v>
       </c>
       <c r="E74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F74">
         <v>65</v>
@@ -4941,7 +4944,7 @@
         <v>183.5</v>
       </c>
       <c r="L74">
-        <v>48.5</v>
+        <v>42</v>
       </c>
       <c r="M74">
         <v>117.45</v>
@@ -4956,19 +4959,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4985,7 +4988,7 @@
         <v>49</v>
       </c>
       <c r="E75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F75">
         <v>0.3</v>
@@ -5000,7 +5003,7 @@
         <v>0.9876</v>
       </c>
       <c r="L75">
-        <v>0.415</v>
+        <v>0.3</v>
       </c>
       <c r="M75">
         <v>0.4869</v>
@@ -5015,19 +5018,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5044,7 +5047,7 @@
         <v>49</v>
       </c>
       <c r="E76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F76">
         <v>0.017</v>
@@ -5074,19 +5077,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5103,7 +5106,7 @@
         <v>49</v>
       </c>
       <c r="E77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F77">
         <v>0.017</v>
@@ -5133,19 +5136,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5162,16 +5165,16 @@
         <v>49</v>
       </c>
       <c r="E78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F78">
         <v>630</v>
       </c>
       <c r="G78">
-        <v>1858.54926030973</v>
+        <v>1558.28959728297</v>
       </c>
       <c r="H78">
-        <v>20406.1670502103</v>
+        <v>11251.1652506502</v>
       </c>
       <c r="I78">
         <v>8440</v>
@@ -5183,7 +5186,7 @@
         <v>89.83050847457631</v>
       </c>
       <c r="L78">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="M78">
         <v>1841</v>
@@ -5198,19 +5201,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U78" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5227,16 +5230,16 @@
         <v>49</v>
       </c>
       <c r="E79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F79">
         <v>630</v>
       </c>
       <c r="G79">
-        <v>1858.54926030973</v>
+        <v>1558.28959728297</v>
       </c>
       <c r="H79">
-        <v>20406.1670502103</v>
+        <v>11251.1652506502</v>
       </c>
       <c r="I79">
         <v>8440</v>
@@ -5248,7 +5251,7 @@
         <v>89.83050847457631</v>
       </c>
       <c r="L79">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="M79">
         <v>1841</v>
@@ -5263,19 +5266,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5292,16 +5295,16 @@
         <v>49</v>
       </c>
       <c r="E80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F80">
         <v>630</v>
       </c>
       <c r="G80">
-        <v>1858.54926030973</v>
+        <v>1558.28959728297</v>
       </c>
       <c r="H80">
-        <v>20406.1670502103</v>
+        <v>11251.1652506502</v>
       </c>
       <c r="I80">
         <v>8440</v>
@@ -5313,7 +5316,7 @@
         <v>89.83050847457631</v>
       </c>
       <c r="L80">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="M80">
         <v>1841</v>
@@ -5328,19 +5331,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5357,16 +5360,16 @@
         <v>49</v>
       </c>
       <c r="E81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F81">
         <v>630</v>
       </c>
       <c r="G81">
-        <v>1858.54926030973</v>
+        <v>1558.28959728297</v>
       </c>
       <c r="H81">
-        <v>20406.1670502103</v>
+        <v>11251.1652506502</v>
       </c>
       <c r="I81">
         <v>8440</v>
@@ -5378,7 +5381,7 @@
         <v>89.83050847457631</v>
       </c>
       <c r="L81">
-        <v>550</v>
+        <v>630</v>
       </c>
       <c r="M81">
         <v>1841</v>
@@ -5393,19 +5396,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U81" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5422,28 +5425,28 @@
         <v>49</v>
       </c>
       <c r="E82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F82">
         <v>0.01177</v>
       </c>
       <c r="G82">
-        <v>0.0168692619134825</v>
+        <v>0.0167208953661979</v>
       </c>
       <c r="H82">
         <v>0.11550500540332</v>
       </c>
       <c r="I82">
-        <v>0.04385</v>
+        <v>0.04342</v>
       </c>
       <c r="L82">
-        <v>0.01278</v>
+        <v>0.01577</v>
       </c>
       <c r="M82">
         <v>0.02498</v>
       </c>
       <c r="N82">
-        <v>0.03015</v>
+        <v>0.02976</v>
       </c>
       <c r="O82">
         <v>1819568.572</v>
@@ -5452,19 +5455,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5481,28 +5484,28 @@
         <v>49</v>
       </c>
       <c r="E83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F83">
         <v>0.01177</v>
       </c>
       <c r="G83">
-        <v>0.0168692619134825</v>
+        <v>0.0167208953661979</v>
       </c>
       <c r="H83">
         <v>0.11550500540332</v>
       </c>
       <c r="I83">
-        <v>0.04385</v>
+        <v>0.04342</v>
       </c>
       <c r="L83">
-        <v>0.01278</v>
+        <v>0.01577</v>
       </c>
       <c r="M83">
         <v>0.02498</v>
       </c>
       <c r="N83">
-        <v>0.03015</v>
+        <v>0.02976</v>
       </c>
       <c r="O83">
         <v>1819568.572</v>
@@ -5511,19 +5514,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U83" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5540,13 +5543,13 @@
         <v>49</v>
       </c>
       <c r="E84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F84">
         <v>0.198</v>
       </c>
       <c r="G84">
-        <v>0.238473594992636</v>
+        <v>0.23868054137294</v>
       </c>
       <c r="H84">
         <v>1.07</v>
@@ -5555,7 +5558,7 @@
         <v>0.70895</v>
       </c>
       <c r="L84">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="M84">
         <v>0.48239</v>
@@ -5570,19 +5573,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U84" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5599,13 +5602,13 @@
         <v>49</v>
       </c>
       <c r="E85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F85">
         <v>0.198</v>
       </c>
       <c r="G85">
-        <v>0.238473594992636</v>
+        <v>0.23868054137294</v>
       </c>
       <c r="H85">
         <v>1.07</v>
@@ -5614,7 +5617,7 @@
         <v>0.70895</v>
       </c>
       <c r="L85">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="M85">
         <v>0.48239</v>
@@ -5629,19 +5632,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U85" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5655,13 +5658,13 @@
         <v>49</v>
       </c>
       <c r="E86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F86">
         <v>0.215</v>
       </c>
       <c r="G86">
-        <v>0.262084653049866</v>
+        <v>0.262258812520725</v>
       </c>
       <c r="H86">
         <v>1.12</v>
@@ -5670,7 +5673,7 @@
         <v>0.7449</v>
       </c>
       <c r="L86">
-        <v>0.028</v>
+        <v>0.034</v>
       </c>
       <c r="M86">
         <v>0.52841</v>
@@ -5685,19 +5688,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5711,13 +5714,13 @@
         <v>49</v>
       </c>
       <c r="E87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F87">
         <v>0.215</v>
       </c>
       <c r="G87">
-        <v>0.262084653049866</v>
+        <v>0.262258812520725</v>
       </c>
       <c r="H87">
         <v>1.12</v>
@@ -5726,7 +5729,7 @@
         <v>0.7449</v>
       </c>
       <c r="L87">
-        <v>0.028</v>
+        <v>0.034</v>
       </c>
       <c r="M87">
         <v>0.52841</v>
@@ -5741,19 +5744,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5767,7 +5770,7 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F88">
         <v>0.79</v>
@@ -5782,7 +5785,7 @@
         <v>1.475</v>
       </c>
       <c r="L88">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="M88">
         <v>1.1247</v>
@@ -5797,19 +5800,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U88" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5823,7 +5826,7 @@
         <v>49</v>
       </c>
       <c r="E89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F89">
         <v>0.79</v>
@@ -5838,7 +5841,7 @@
         <v>1.475</v>
       </c>
       <c r="L89">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="M89">
         <v>1.1247</v>
@@ -5853,19 +5856,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U89" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5879,7 +5882,7 @@
         <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F90">
         <v>0.07000000000000001</v>
@@ -5894,7 +5897,7 @@
         <v>0.18255</v>
       </c>
       <c r="L90">
-        <v>0.0945</v>
+        <v>0.092</v>
       </c>
       <c r="M90">
         <v>0.1177</v>
@@ -5909,19 +5912,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U90" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5935,7 +5938,7 @@
         <v>49</v>
       </c>
       <c r="E91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F91">
         <v>0.07000000000000001</v>
@@ -5950,7 +5953,7 @@
         <v>0.18255</v>
       </c>
       <c r="L91">
-        <v>0.0945</v>
+        <v>0.092</v>
       </c>
       <c r="M91">
         <v>0.1177</v>
@@ -5965,19 +5968,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U91" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -5994,7 +5997,7 @@
         <v>50</v>
       </c>
       <c r="E92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F92">
         <v>60</v>
@@ -6009,7 +6012,7 @@
         <v>189.25</v>
       </c>
       <c r="L92">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M92">
         <v>117.45</v>
@@ -6024,19 +6027,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6053,7 +6056,7 @@
         <v>50</v>
       </c>
       <c r="E93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F93">
         <v>0.018</v>
@@ -6068,7 +6071,7 @@
         <v>0.044</v>
       </c>
       <c r="L93">
-        <v>0.022</v>
+        <v>0.0225</v>
       </c>
       <c r="M93">
         <v>0.025</v>
@@ -6083,19 +6086,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6112,7 +6115,7 @@
         <v>50</v>
       </c>
       <c r="E94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F94">
         <v>0.018</v>
@@ -6127,7 +6130,7 @@
         <v>0.044</v>
       </c>
       <c r="L94">
-        <v>0.022</v>
+        <v>0.0225</v>
       </c>
       <c r="M94">
         <v>0.025</v>
@@ -6142,19 +6145,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6171,16 +6174,16 @@
         <v>50</v>
       </c>
       <c r="E95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F95">
         <v>520</v>
       </c>
       <c r="G95">
-        <v>1342.6412294739</v>
+        <v>1218.46301566267</v>
       </c>
       <c r="H95">
-        <v>18455.2393080638</v>
+        <v>11251.1652506502</v>
       </c>
       <c r="I95">
         <v>5045.2</v>
@@ -6192,7 +6195,7 @@
         <v>84.48275862068969</v>
       </c>
       <c r="L95">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="M95">
         <v>1700</v>
@@ -6207,19 +6210,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U95" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6236,16 +6239,16 @@
         <v>50</v>
       </c>
       <c r="E96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F96">
         <v>520</v>
       </c>
       <c r="G96">
-        <v>1342.6412294739</v>
+        <v>1218.46301566267</v>
       </c>
       <c r="H96">
-        <v>18455.2393080638</v>
+        <v>11251.1652506502</v>
       </c>
       <c r="I96">
         <v>5045.2</v>
@@ -6257,7 +6260,7 @@
         <v>84.48275862068969</v>
       </c>
       <c r="L96">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="M96">
         <v>1700</v>
@@ -6272,19 +6275,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6301,16 +6304,16 @@
         <v>50</v>
       </c>
       <c r="E97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F97">
         <v>520</v>
       </c>
       <c r="G97">
-        <v>1342.6412294739</v>
+        <v>1218.46301566267</v>
       </c>
       <c r="H97">
-        <v>18455.2393080638</v>
+        <v>11251.1652506502</v>
       </c>
       <c r="I97">
         <v>5045.2</v>
@@ -6322,7 +6325,7 @@
         <v>84.48275862068969</v>
       </c>
       <c r="L97">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="M97">
         <v>1700</v>
@@ -6337,19 +6340,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6366,16 +6369,16 @@
         <v>50</v>
       </c>
       <c r="E98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F98">
         <v>520</v>
       </c>
       <c r="G98">
-        <v>1342.6412294739</v>
+        <v>1218.46301566267</v>
       </c>
       <c r="H98">
-        <v>18455.2393080638</v>
+        <v>11251.1652506502</v>
       </c>
       <c r="I98">
         <v>5045.2</v>
@@ -6387,7 +6390,7 @@
         <v>84.48275862068969</v>
       </c>
       <c r="L98">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="M98">
         <v>1700</v>
@@ -6402,19 +6405,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U98" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6431,28 +6434,28 @@
         <v>50</v>
       </c>
       <c r="E99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F99">
         <v>0.01376</v>
       </c>
       <c r="G99">
-        <v>0.017765926947845</v>
+        <v>0.0176250951730594</v>
       </c>
       <c r="H99">
         <v>0.11550500540332</v>
       </c>
       <c r="I99">
-        <v>0.04385</v>
+        <v>0.04353</v>
       </c>
       <c r="L99">
-        <v>0.0152</v>
+        <v>0.01509</v>
       </c>
       <c r="M99">
         <v>0.02449</v>
       </c>
       <c r="N99">
-        <v>0.03329</v>
+        <v>0.03254</v>
       </c>
       <c r="O99">
         <v>1819568.572</v>
@@ -6461,19 +6464,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6490,28 +6493,28 @@
         <v>50</v>
       </c>
       <c r="E100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F100">
         <v>0.01376</v>
       </c>
       <c r="G100">
-        <v>0.017765926947845</v>
+        <v>0.0176250951730594</v>
       </c>
       <c r="H100">
         <v>0.11550500540332</v>
       </c>
       <c r="I100">
-        <v>0.04385</v>
+        <v>0.04353</v>
       </c>
       <c r="L100">
-        <v>0.0152</v>
+        <v>0.01509</v>
       </c>
       <c r="M100">
         <v>0.02449</v>
       </c>
       <c r="N100">
-        <v>0.03329</v>
+        <v>0.03254</v>
       </c>
       <c r="O100">
         <v>1819568.572</v>
@@ -6520,19 +6523,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U100" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6549,13 +6552,13 @@
         <v>50</v>
       </c>
       <c r="E101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F101">
         <v>0.187</v>
       </c>
       <c r="G101">
-        <v>0.279850676914932</v>
+        <v>0.280039027670549</v>
       </c>
       <c r="H101">
         <v>1.56</v>
@@ -6564,7 +6567,7 @@
         <v>0.9429999999999999</v>
       </c>
       <c r="L101">
-        <v>0.011</v>
+        <v>0.017</v>
       </c>
       <c r="M101">
         <v>0.58212</v>
@@ -6579,19 +6582,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U101" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6608,13 +6611,13 @@
         <v>50</v>
       </c>
       <c r="E102" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F102">
         <v>0.187</v>
       </c>
       <c r="G102">
-        <v>0.279850676914932</v>
+        <v>0.280039027670549</v>
       </c>
       <c r="H102">
         <v>1.56</v>
@@ -6623,7 +6626,7 @@
         <v>0.9429999999999999</v>
       </c>
       <c r="L102">
-        <v>0.011</v>
+        <v>0.017</v>
       </c>
       <c r="M102">
         <v>0.58212</v>
@@ -6638,19 +6641,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U102" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6664,13 +6667,13 @@
         <v>50</v>
       </c>
       <c r="E103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F103">
         <v>0.199</v>
       </c>
       <c r="G103">
-        <v>0.30466727129324</v>
+        <v>0.304826427157982</v>
       </c>
       <c r="H103">
         <v>1.597</v>
@@ -6679,7 +6682,7 @@
         <v>1.0052</v>
       </c>
       <c r="L103">
-        <v>0.028</v>
+        <v>0.0425</v>
       </c>
       <c r="M103">
         <v>0.61856</v>
@@ -6694,19 +6697,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U103" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6720,13 +6723,13 @@
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F104">
         <v>0.199</v>
       </c>
       <c r="G104">
-        <v>0.30466727129324</v>
+        <v>0.304826427157982</v>
       </c>
       <c r="H104">
         <v>1.597</v>
@@ -6735,7 +6738,7 @@
         <v>1.0052</v>
       </c>
       <c r="L104">
-        <v>0.028</v>
+        <v>0.0425</v>
       </c>
       <c r="M104">
         <v>0.61856</v>
@@ -6750,19 +6753,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U104" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6776,7 +6779,7 @@
         <v>50</v>
       </c>
       <c r="E105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F105">
         <v>0.795</v>
@@ -6791,7 +6794,7 @@
         <v>1.544</v>
       </c>
       <c r="L105">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="M105">
         <v>1.1656</v>
@@ -6806,19 +6809,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U105" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6832,7 +6835,7 @@
         <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F106">
         <v>0.795</v>
@@ -6847,7 +6850,7 @@
         <v>1.544</v>
       </c>
       <c r="L106">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="M106">
         <v>1.1656</v>
@@ -6862,19 +6865,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U106" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6888,7 +6891,7 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F107">
         <v>0.068</v>
@@ -6903,7 +6906,7 @@
         <v>0.1756</v>
       </c>
       <c r="L107">
-        <v>0.092</v>
+        <v>0.082</v>
       </c>
       <c r="M107">
         <v>0.1052</v>
@@ -6918,19 +6921,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U107" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6944,7 +6947,7 @@
         <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F108">
         <v>0.068</v>
@@ -6959,7 +6962,7 @@
         <v>0.1756</v>
       </c>
       <c r="L108">
-        <v>0.092</v>
+        <v>0.082</v>
       </c>
       <c r="M108">
         <v>0.1052</v>
@@ -6974,19 +6977,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U108" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7003,7 +7006,7 @@
         <v>51</v>
       </c>
       <c r="E109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F109">
         <v>65</v>
@@ -7018,7 +7021,7 @@
         <v>189.25</v>
       </c>
       <c r="L109">
-        <v>25.25</v>
+        <v>33</v>
       </c>
       <c r="M109">
         <v>117.45</v>
@@ -7033,19 +7036,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7062,7 +7065,7 @@
         <v>51</v>
       </c>
       <c r="E110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F110">
         <v>0.017</v>
@@ -7092,19 +7095,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7121,7 +7124,7 @@
         <v>51</v>
       </c>
       <c r="E111" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F111">
         <v>0.017</v>
@@ -7151,19 +7154,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U111" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7180,13 +7183,13 @@
         <v>51</v>
       </c>
       <c r="E112" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F112">
         <v>475</v>
       </c>
       <c r="G112">
-        <v>997.844000024519</v>
+        <v>997.89120099629</v>
       </c>
       <c r="H112">
         <v>6900</v>
@@ -7201,13 +7204,13 @@
         <v>79.31034482758621</v>
       </c>
       <c r="L112">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="M112">
         <v>1428</v>
       </c>
       <c r="N112">
-        <v>3996.58</v>
+        <v>3996.552</v>
       </c>
       <c r="O112">
         <v>1819568.572</v>
@@ -7216,19 +7219,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U112" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7245,13 +7248,13 @@
         <v>51</v>
       </c>
       <c r="E113" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F113">
         <v>475</v>
       </c>
       <c r="G113">
-        <v>997.844000024519</v>
+        <v>997.89120099629</v>
       </c>
       <c r="H113">
         <v>6900</v>
@@ -7266,13 +7269,13 @@
         <v>79.31034482758621</v>
       </c>
       <c r="L113">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="M113">
         <v>1428</v>
       </c>
       <c r="N113">
-        <v>3996.58</v>
+        <v>3996.552</v>
       </c>
       <c r="O113">
         <v>1819568.572</v>
@@ -7281,19 +7284,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U113" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7310,13 +7313,13 @@
         <v>51</v>
       </c>
       <c r="E114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F114">
         <v>475</v>
       </c>
       <c r="G114">
-        <v>997.844000024519</v>
+        <v>997.89120099629</v>
       </c>
       <c r="H114">
         <v>6900</v>
@@ -7331,13 +7334,13 @@
         <v>79.31034482758621</v>
       </c>
       <c r="L114">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="M114">
         <v>1428</v>
       </c>
       <c r="N114">
-        <v>3996.58</v>
+        <v>3996.552</v>
       </c>
       <c r="O114">
         <v>1819568.572</v>
@@ -7346,19 +7349,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U114" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7375,13 +7378,13 @@
         <v>51</v>
       </c>
       <c r="E115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F115">
         <v>475</v>
       </c>
       <c r="G115">
-        <v>997.844000024519</v>
+        <v>997.89120099629</v>
       </c>
       <c r="H115">
         <v>6900</v>
@@ -7396,13 +7399,13 @@
         <v>79.31034482758621</v>
       </c>
       <c r="L115">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="M115">
         <v>1428</v>
       </c>
       <c r="N115">
-        <v>3996.58</v>
+        <v>3996.552</v>
       </c>
       <c r="O115">
         <v>1819568.572</v>
@@ -7411,19 +7414,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U115" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7440,13 +7443,13 @@
         <v>51</v>
       </c>
       <c r="E116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F116">
         <v>0.01512</v>
       </c>
       <c r="G116">
-        <v>0.018704387981807</v>
+        <v>0.0186535533048941</v>
       </c>
       <c r="H116">
         <v>0.11550500540332</v>
@@ -7455,7 +7458,7 @@
         <v>0.04386</v>
       </c>
       <c r="L116">
-        <v>0.01625</v>
+        <v>0.01503</v>
       </c>
       <c r="M116">
         <v>0.02479</v>
@@ -7470,19 +7473,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U116" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7499,13 +7502,13 @@
         <v>51</v>
       </c>
       <c r="E117" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F117">
         <v>0.01512</v>
       </c>
       <c r="G117">
-        <v>0.018704387981807</v>
+        <v>0.0186535533048941</v>
       </c>
       <c r="H117">
         <v>0.11550500540332</v>
@@ -7514,7 +7517,7 @@
         <v>0.04386</v>
       </c>
       <c r="L117">
-        <v>0.01625</v>
+        <v>0.01503</v>
       </c>
       <c r="M117">
         <v>0.02479</v>
@@ -7529,19 +7532,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U117" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7558,13 +7561,13 @@
         <v>51</v>
       </c>
       <c r="E118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F118">
         <v>0.1975</v>
       </c>
       <c r="G118">
-        <v>0.295109364629678</v>
+        <v>0.295271048382166</v>
       </c>
       <c r="H118">
         <v>1.56</v>
@@ -7573,7 +7576,7 @@
         <v>0.9429999999999999</v>
       </c>
       <c r="L118">
-        <v>0.013</v>
+        <v>0.035</v>
       </c>
       <c r="M118">
         <v>0.58756</v>
@@ -7588,19 +7591,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U118" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7617,13 +7620,13 @@
         <v>51</v>
       </c>
       <c r="E119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F119">
         <v>0.1975</v>
       </c>
       <c r="G119">
-        <v>0.295109364629678</v>
+        <v>0.295271048382166</v>
       </c>
       <c r="H119">
         <v>1.56</v>
@@ -7632,7 +7635,7 @@
         <v>0.9429999999999999</v>
       </c>
       <c r="L119">
-        <v>0.013</v>
+        <v>0.035</v>
       </c>
       <c r="M119">
         <v>0.58756</v>
@@ -7647,19 +7650,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q119" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U119" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7673,13 +7676,13 @@
         <v>51</v>
       </c>
       <c r="E120" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F120">
         <v>0.2115</v>
       </c>
       <c r="G120">
-        <v>0.321792632797143</v>
+        <v>0.321903263336285</v>
       </c>
       <c r="H120">
         <v>1.597</v>
@@ -7688,7 +7691,7 @@
         <v>1.0052</v>
       </c>
       <c r="L120">
-        <v>0.049</v>
+        <v>0.064</v>
       </c>
       <c r="M120">
         <v>0.63472</v>
@@ -7703,19 +7706,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U120" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7729,13 +7732,13 @@
         <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F121">
         <v>0.2115</v>
       </c>
       <c r="G121">
-        <v>0.321792632797143</v>
+        <v>0.321903263336285</v>
       </c>
       <c r="H121">
         <v>1.597</v>
@@ -7744,7 +7747,7 @@
         <v>1.0052</v>
       </c>
       <c r="L121">
-        <v>0.049</v>
+        <v>0.064</v>
       </c>
       <c r="M121">
         <v>0.63472</v>
@@ -7759,19 +7762,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U121" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7785,7 +7788,7 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F122">
         <v>0.8100000000000001</v>
@@ -7800,7 +7803,7 @@
         <v>1.544</v>
       </c>
       <c r="L122">
-        <v>0.77</v>
+        <v>0.765</v>
       </c>
       <c r="M122">
         <v>1.18</v>
@@ -7815,19 +7818,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q122" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U122" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7841,7 +7844,7 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F123">
         <v>0.8100000000000001</v>
@@ -7856,7 +7859,7 @@
         <v>1.544</v>
       </c>
       <c r="L123">
-        <v>0.77</v>
+        <v>0.765</v>
       </c>
       <c r="M123">
         <v>1.18</v>
@@ -7871,19 +7874,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q123" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U123" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7897,7 +7900,7 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F124">
         <v>0.06850000000000001</v>
@@ -7912,7 +7915,7 @@
         <v>0.1568</v>
       </c>
       <c r="L124">
-        <v>0.092</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="M124">
         <v>0.11364</v>
@@ -7927,19 +7930,19 @@
         <v>5575134.211</v>
       </c>
       <c r="Q124" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U124" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7953,7 +7956,7 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F125">
         <v>0.06850000000000001</v>
@@ -7968,7 +7971,7 @@
         <v>0.1568</v>
       </c>
       <c r="L125">
-        <v>0.092</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="M125">
         <v>0.11364</v>
@@ -7983,19 +7986,1028 @@
         <v>5575134.211</v>
       </c>
       <c r="Q125" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U125" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" t="s">
+        <v>40</v>
+      </c>
+      <c r="D126" t="s">
+        <v>52</v>
+      </c>
+      <c r="E126" t="s">
+        <v>53</v>
+      </c>
+      <c r="F126">
+        <v>57.5</v>
+      </c>
+      <c r="G126">
+        <v>66.9402173913043</v>
+      </c>
+      <c r="H126">
+        <v>230</v>
+      </c>
+      <c r="I126">
+        <v>197</v>
+      </c>
+      <c r="L126">
+        <v>28</v>
+      </c>
+      <c r="M126">
+        <v>118.6</v>
+      </c>
+      <c r="N126">
+        <v>180.5</v>
+      </c>
+      <c r="O126">
+        <v>1819568.572</v>
+      </c>
+      <c r="P126">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>54</v>
+      </c>
+      <c r="R126" t="s">
+        <v>55</v>
+      </c>
+      <c r="S126" t="s">
+        <v>56</v>
+      </c>
+      <c r="T126" t="s">
+        <v>57</v>
+      </c>
+      <c r="U126" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21">
+      <c r="A127" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" t="s">
+        <v>42</v>
+      </c>
+      <c r="D127" t="s">
+        <v>52</v>
+      </c>
+      <c r="E127" t="s">
+        <v>53</v>
+      </c>
+      <c r="F127">
+        <v>0.016</v>
+      </c>
+      <c r="G127">
+        <v>0.0187931034482759</v>
+      </c>
+      <c r="H127">
+        <v>0.063</v>
+      </c>
+      <c r="I127">
+        <v>0.044</v>
+      </c>
+      <c r="L127">
+        <v>0.0205</v>
+      </c>
+      <c r="M127">
+        <v>0.02364</v>
+      </c>
+      <c r="N127">
+        <v>0.03486</v>
+      </c>
+      <c r="O127">
+        <v>1819568.572</v>
+      </c>
+      <c r="P127">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>54</v>
+      </c>
+      <c r="R127" t="s">
+        <v>55</v>
+      </c>
+      <c r="S127" t="s">
+        <v>56</v>
+      </c>
+      <c r="T127" t="s">
+        <v>57</v>
+      </c>
+      <c r="U127" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21">
+      <c r="A128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" t="s">
+        <v>42</v>
+      </c>
+      <c r="D128" t="s">
+        <v>52</v>
+      </c>
+      <c r="E128" t="s">
+        <v>53</v>
+      </c>
+      <c r="F128">
+        <v>0.016</v>
+      </c>
+      <c r="G128">
+        <v>0.0187931034482759</v>
+      </c>
+      <c r="H128">
+        <v>0.063</v>
+      </c>
+      <c r="I128">
+        <v>0.044</v>
+      </c>
+      <c r="L128">
+        <v>0.0205</v>
+      </c>
+      <c r="M128">
+        <v>0.02364</v>
+      </c>
+      <c r="N128">
+        <v>0.03486</v>
+      </c>
+      <c r="O128">
+        <v>1819568.572</v>
+      </c>
+      <c r="P128">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>54</v>
+      </c>
+      <c r="R128" t="s">
+        <v>55</v>
+      </c>
+      <c r="S128" t="s">
+        <v>56</v>
+      </c>
+      <c r="T128" t="s">
+        <v>57</v>
+      </c>
+      <c r="U128" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21">
+      <c r="A129" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" t="s">
+        <v>43</v>
+      </c>
+      <c r="D129" t="s">
+        <v>52</v>
+      </c>
+      <c r="E129" t="s">
+        <v>53</v>
+      </c>
+      <c r="F129">
+        <v>526.6</v>
+      </c>
+      <c r="G129">
+        <v>900.118787203187</v>
+      </c>
+      <c r="H129">
+        <v>6900</v>
+      </c>
+      <c r="I129">
+        <v>3986.52</v>
+      </c>
+      <c r="J129">
+        <v>48.2758620689655</v>
+      </c>
+      <c r="K129">
+        <v>81.0344827586207</v>
+      </c>
+      <c r="L129">
+        <v>570</v>
+      </c>
+      <c r="M129">
+        <v>1217.584</v>
+      </c>
+      <c r="N129">
+        <v>1622.464</v>
+      </c>
+      <c r="O129">
+        <v>1819568.572</v>
+      </c>
+      <c r="P129">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>54</v>
+      </c>
+      <c r="R129" t="s">
+        <v>55</v>
+      </c>
+      <c r="S129" t="s">
+        <v>56</v>
+      </c>
+      <c r="T129" t="s">
+        <v>57</v>
+      </c>
+      <c r="U129" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21">
+      <c r="A130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" t="s">
+        <v>43</v>
+      </c>
+      <c r="D130" t="s">
+        <v>52</v>
+      </c>
+      <c r="E130" t="s">
+        <v>53</v>
+      </c>
+      <c r="F130">
+        <v>526.6</v>
+      </c>
+      <c r="G130">
+        <v>900.118787203187</v>
+      </c>
+      <c r="H130">
+        <v>6900</v>
+      </c>
+      <c r="I130">
+        <v>3986.52</v>
+      </c>
+      <c r="J130">
+        <v>48.2758620689655</v>
+      </c>
+      <c r="K130">
+        <v>81.0344827586207</v>
+      </c>
+      <c r="L130">
+        <v>570</v>
+      </c>
+      <c r="M130">
+        <v>1217.584</v>
+      </c>
+      <c r="N130">
+        <v>1622.464</v>
+      </c>
+      <c r="O130">
+        <v>1819568.572</v>
+      </c>
+      <c r="P130">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>54</v>
+      </c>
+      <c r="R130" t="s">
+        <v>55</v>
+      </c>
+      <c r="S130" t="s">
+        <v>56</v>
+      </c>
+      <c r="T130" t="s">
+        <v>57</v>
+      </c>
+      <c r="U130" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21">
+      <c r="A131" t="s">
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" t="s">
+        <v>43</v>
+      </c>
+      <c r="D131" t="s">
+        <v>52</v>
+      </c>
+      <c r="E131" t="s">
+        <v>53</v>
+      </c>
+      <c r="F131">
+        <v>526.6</v>
+      </c>
+      <c r="G131">
+        <v>900.118787203187</v>
+      </c>
+      <c r="H131">
+        <v>6900</v>
+      </c>
+      <c r="I131">
+        <v>3986.52</v>
+      </c>
+      <c r="J131">
+        <v>48.2758620689655</v>
+      </c>
+      <c r="K131">
+        <v>81.0344827586207</v>
+      </c>
+      <c r="L131">
+        <v>570</v>
+      </c>
+      <c r="M131">
+        <v>1217.584</v>
+      </c>
+      <c r="N131">
+        <v>1622.464</v>
+      </c>
+      <c r="O131">
+        <v>1819568.572</v>
+      </c>
+      <c r="P131">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>54</v>
+      </c>
+      <c r="R131" t="s">
+        <v>55</v>
+      </c>
+      <c r="S131" t="s">
+        <v>56</v>
+      </c>
+      <c r="T131" t="s">
+        <v>57</v>
+      </c>
+      <c r="U131" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21">
+      <c r="A132" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>29</v>
+      </c>
+      <c r="C132" t="s">
+        <v>43</v>
+      </c>
+      <c r="D132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E132" t="s">
+        <v>53</v>
+      </c>
+      <c r="F132">
+        <v>526.6</v>
+      </c>
+      <c r="G132">
+        <v>900.118787203187</v>
+      </c>
+      <c r="H132">
+        <v>6900</v>
+      </c>
+      <c r="I132">
+        <v>3986.52</v>
+      </c>
+      <c r="J132">
+        <v>48.2758620689655</v>
+      </c>
+      <c r="K132">
+        <v>81.0344827586207</v>
+      </c>
+      <c r="L132">
+        <v>570</v>
+      </c>
+      <c r="M132">
+        <v>1217.584</v>
+      </c>
+      <c r="N132">
+        <v>1622.464</v>
+      </c>
+      <c r="O132">
+        <v>1819568.572</v>
+      </c>
+      <c r="P132">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>54</v>
+      </c>
+      <c r="R132" t="s">
+        <v>55</v>
+      </c>
+      <c r="S132" t="s">
+        <v>56</v>
+      </c>
+      <c r="T132" t="s">
+        <v>57</v>
+      </c>
+      <c r="U132" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21">
+      <c r="A133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" t="s">
+        <v>44</v>
+      </c>
+      <c r="D133" t="s">
+        <v>52</v>
+      </c>
+      <c r="E133" t="s">
+        <v>53</v>
+      </c>
+      <c r="F133">
+        <v>0.01538</v>
+      </c>
+      <c r="G133">
+        <v>0.0163047515540644</v>
+      </c>
+      <c r="H133">
+        <v>0.0384738613686428</v>
+      </c>
+      <c r="I133">
+        <v>0.03541</v>
+      </c>
+      <c r="L133">
+        <v>0.01503</v>
+      </c>
+      <c r="M133">
+        <v>0.02479</v>
+      </c>
+      <c r="N133">
+        <v>0.03274</v>
+      </c>
+      <c r="O133">
+        <v>1819568.572</v>
+      </c>
+      <c r="P133">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>54</v>
+      </c>
+      <c r="R133" t="s">
+        <v>55</v>
+      </c>
+      <c r="S133" t="s">
+        <v>56</v>
+      </c>
+      <c r="T133" t="s">
+        <v>57</v>
+      </c>
+      <c r="U133" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21">
+      <c r="A134" t="s">
+        <v>21</v>
+      </c>
+      <c r="B134" t="s">
+        <v>31</v>
+      </c>
+      <c r="C134" t="s">
+        <v>44</v>
+      </c>
+      <c r="D134" t="s">
+        <v>52</v>
+      </c>
+      <c r="E134" t="s">
+        <v>53</v>
+      </c>
+      <c r="F134">
+        <v>0.01538</v>
+      </c>
+      <c r="G134">
+        <v>0.0163047515540644</v>
+      </c>
+      <c r="H134">
+        <v>0.0384738613686428</v>
+      </c>
+      <c r="I134">
+        <v>0.03541</v>
+      </c>
+      <c r="L134">
+        <v>0.01503</v>
+      </c>
+      <c r="M134">
+        <v>0.02479</v>
+      </c>
+      <c r="N134">
+        <v>0.03274</v>
+      </c>
+      <c r="O134">
+        <v>1819568.572</v>
+      </c>
+      <c r="P134">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>54</v>
+      </c>
+      <c r="R134" t="s">
+        <v>55</v>
+      </c>
+      <c r="S134" t="s">
+        <v>56</v>
+      </c>
+      <c r="T134" t="s">
+        <v>57</v>
+      </c>
+      <c r="U134" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21">
+      <c r="A135" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" t="s">
+        <v>32</v>
+      </c>
+      <c r="C135" t="s">
+        <v>44</v>
+      </c>
+      <c r="D135" t="s">
+        <v>52</v>
+      </c>
+      <c r="E135" t="s">
+        <v>53</v>
+      </c>
+      <c r="F135">
+        <v>0.2055</v>
+      </c>
+      <c r="G135">
+        <v>0.283694245192393</v>
+      </c>
+      <c r="H135">
+        <v>1.56</v>
+      </c>
+      <c r="I135">
+        <v>0.8618</v>
+      </c>
+      <c r="L135">
+        <v>0.0405</v>
+      </c>
+      <c r="M135">
+        <v>0.5698</v>
+      </c>
+      <c r="N135">
+        <v>0.76194</v>
+      </c>
+      <c r="O135">
+        <v>1819568.572</v>
+      </c>
+      <c r="P135">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>54</v>
+      </c>
+      <c r="R135" t="s">
+        <v>55</v>
+      </c>
+      <c r="S135" t="s">
+        <v>56</v>
+      </c>
+      <c r="T135" t="s">
+        <v>57</v>
+      </c>
+      <c r="U135" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
+      <c r="A136" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" t="s">
+        <v>44</v>
+      </c>
+      <c r="D136" t="s">
+        <v>52</v>
+      </c>
+      <c r="E136" t="s">
+        <v>53</v>
+      </c>
+      <c r="F136">
+        <v>0.2055</v>
+      </c>
+      <c r="G136">
+        <v>0.283694245192393</v>
+      </c>
+      <c r="H136">
+        <v>1.56</v>
+      </c>
+      <c r="I136">
+        <v>0.8618</v>
+      </c>
+      <c r="L136">
+        <v>0.0405</v>
+      </c>
+      <c r="M136">
+        <v>0.5698</v>
+      </c>
+      <c r="N136">
+        <v>0.76194</v>
+      </c>
+      <c r="O136">
+        <v>1819568.572</v>
+      </c>
+      <c r="P136">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>54</v>
+      </c>
+      <c r="R136" t="s">
+        <v>55</v>
+      </c>
+      <c r="S136" t="s">
+        <v>56</v>
+      </c>
+      <c r="T136" t="s">
+        <v>57</v>
+      </c>
+      <c r="U136" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" t="s">
+        <v>34</v>
+      </c>
+      <c r="D137" t="s">
+        <v>52</v>
+      </c>
+      <c r="E137" t="s">
+        <v>53</v>
+      </c>
+      <c r="F137">
+        <v>0.215</v>
+      </c>
+      <c r="G137">
+        <v>0.311370689655172</v>
+      </c>
+      <c r="H137">
+        <v>1.597</v>
+      </c>
+      <c r="I137">
+        <v>0.9144</v>
+      </c>
+      <c r="L137">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="M137">
+        <v>0.61312</v>
+      </c>
+      <c r="N137">
+        <v>0.78662</v>
+      </c>
+      <c r="O137">
+        <v>1819568.572</v>
+      </c>
+      <c r="P137">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>54</v>
+      </c>
+      <c r="R137" t="s">
+        <v>55</v>
+      </c>
+      <c r="S137" t="s">
+        <v>56</v>
+      </c>
+      <c r="T137" t="s">
+        <v>57</v>
+      </c>
+      <c r="U137" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" t="s">
+        <v>35</v>
+      </c>
+      <c r="D138" t="s">
+        <v>52</v>
+      </c>
+      <c r="E138" t="s">
+        <v>53</v>
+      </c>
+      <c r="F138">
+        <v>0.215</v>
+      </c>
+      <c r="G138">
+        <v>0.311370689655172</v>
+      </c>
+      <c r="H138">
+        <v>1.597</v>
+      </c>
+      <c r="I138">
+        <v>0.9144</v>
+      </c>
+      <c r="L138">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="M138">
+        <v>0.61312</v>
+      </c>
+      <c r="N138">
+        <v>0.78662</v>
+      </c>
+      <c r="O138">
+        <v>1819568.572</v>
+      </c>
+      <c r="P138">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>54</v>
+      </c>
+      <c r="R138" t="s">
+        <v>55</v>
+      </c>
+      <c r="S138" t="s">
+        <v>56</v>
+      </c>
+      <c r="T138" t="s">
+        <v>57</v>
+      </c>
+      <c r="U138" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B139" t="s">
+        <v>36</v>
+      </c>
+      <c r="D139" t="s">
+        <v>52</v>
+      </c>
+      <c r="E139" t="s">
+        <v>53</v>
+      </c>
+      <c r="F139">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G139">
+        <v>0.908275862068965</v>
+      </c>
+      <c r="H139">
+        <v>2.31</v>
+      </c>
+      <c r="I139">
+        <v>1.54</v>
+      </c>
+      <c r="L139">
+        <v>0.765</v>
+      </c>
+      <c r="M139">
+        <v>1.18</v>
+      </c>
+      <c r="N139">
+        <v>1.3586</v>
+      </c>
+      <c r="O139">
+        <v>1819568.572</v>
+      </c>
+      <c r="P139">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>54</v>
+      </c>
+      <c r="R139" t="s">
+        <v>55</v>
+      </c>
+      <c r="S139" t="s">
+        <v>56</v>
+      </c>
+      <c r="T139" t="s">
+        <v>57</v>
+      </c>
+      <c r="U139" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21">
+      <c r="A140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" t="s">
+        <v>37</v>
+      </c>
+      <c r="D140" t="s">
+        <v>52</v>
+      </c>
+      <c r="E140" t="s">
+        <v>53</v>
+      </c>
+      <c r="F140">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G140">
+        <v>0.908275862068965</v>
+      </c>
+      <c r="H140">
+        <v>2.31</v>
+      </c>
+      <c r="I140">
+        <v>1.54</v>
+      </c>
+      <c r="L140">
+        <v>0.765</v>
+      </c>
+      <c r="M140">
+        <v>1.18</v>
+      </c>
+      <c r="N140">
+        <v>1.3586</v>
+      </c>
+      <c r="O140">
+        <v>1819568.572</v>
+      </c>
+      <c r="P140">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>54</v>
+      </c>
+      <c r="R140" t="s">
+        <v>55</v>
+      </c>
+      <c r="S140" t="s">
+        <v>56</v>
+      </c>
+      <c r="T140" t="s">
+        <v>57</v>
+      </c>
+      <c r="U140" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21">
+      <c r="A141" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" t="s">
+        <v>38</v>
+      </c>
+      <c r="D141" t="s">
+        <v>52</v>
+      </c>
+      <c r="E141" t="s">
+        <v>53</v>
+      </c>
+      <c r="F141">
+        <v>0.0735</v>
+      </c>
+      <c r="G141">
+        <v>0.0874655172413793</v>
+      </c>
+      <c r="H141">
+        <v>0.345</v>
+      </c>
+      <c r="I141">
+        <v>0.1672</v>
+      </c>
+      <c r="L141">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="M141">
+        <v>0.11464</v>
+      </c>
+      <c r="N141">
+        <v>0.13286</v>
+      </c>
+      <c r="O141">
+        <v>1819568.572</v>
+      </c>
+      <c r="P141">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>54</v>
+      </c>
+      <c r="R141" t="s">
+        <v>55</v>
+      </c>
+      <c r="S141" t="s">
+        <v>56</v>
+      </c>
+      <c r="T141" t="s">
+        <v>57</v>
+      </c>
+      <c r="U141" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21">
+      <c r="A142" t="s">
+        <v>21</v>
+      </c>
+      <c r="B142" t="s">
+        <v>39</v>
+      </c>
+      <c r="D142" t="s">
+        <v>52</v>
+      </c>
+      <c r="E142" t="s">
+        <v>53</v>
+      </c>
+      <c r="F142">
+        <v>0.0735</v>
+      </c>
+      <c r="G142">
+        <v>0.0874655172413793</v>
+      </c>
+      <c r="H142">
+        <v>0.345</v>
+      </c>
+      <c r="I142">
+        <v>0.1672</v>
+      </c>
+      <c r="L142">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="M142">
+        <v>0.11464</v>
+      </c>
+      <c r="N142">
+        <v>0.13286</v>
+      </c>
+      <c r="O142">
+        <v>1819568.572</v>
+      </c>
+      <c r="P142">
+        <v>5575134.211</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>54</v>
+      </c>
+      <c r="R142" t="s">
+        <v>55</v>
+      </c>
+      <c r="S142" t="s">
+        <v>56</v>
+      </c>
+      <c r="T142" t="s">
+        <v>57</v>
+      </c>
+      <c r="U142" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
